--- a/PythonResources/Data/Consumption/Sympheny/base_1631_hea.xlsx
+++ b/PythonResources/Data/Consumption/Sympheny/base_1631_hea.xlsx
@@ -463,7 +463,7 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>0.5031941812503701</v>
+        <v>0.50319418125037</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -567,7 +567,7 @@
         <v>28</v>
       </c>
       <c r="B28">
-        <v>34.21399226644144</v>
+        <v>34.21399226644143</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -655,7 +655,7 @@
         <v>39</v>
       </c>
       <c r="B39">
-        <v>29.71652410714443</v>
+        <v>29.71652410714442</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -767,7 +767,7 @@
         <v>53</v>
       </c>
       <c r="B53">
-        <v>43.46419345970948</v>
+        <v>43.46419345970947</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -815,7 +815,7 @@
         <v>59</v>
       </c>
       <c r="B59">
-        <v>10.2440636995764</v>
+        <v>10.24406369957639</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -911,7 +911,7 @@
         <v>71</v>
       </c>
       <c r="B71">
-        <v>0.4506817125430302</v>
+        <v>0.4506817125430301</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -991,7 +991,7 @@
         <v>81</v>
       </c>
       <c r="B81">
-        <v>8.370519163622149</v>
+        <v>8.370519163622147</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -1071,7 +1071,7 @@
         <v>91</v>
       </c>
       <c r="B91">
-        <v>3.821382580209148</v>
+        <v>3.821382580209147</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -1167,7 +1167,7 @@
         <v>103</v>
       </c>
       <c r="B103">
-        <v>40.32071349902789</v>
+        <v>40.32071349902788</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -1335,7 +1335,7 @@
         <v>124</v>
       </c>
       <c r="B124">
-        <v>58.28684738208434</v>
+        <v>58.28684738208433</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -1367,7 +1367,7 @@
         <v>128</v>
       </c>
       <c r="B128">
-        <v>69.09501421687609</v>
+        <v>69.09501421687608</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -1383,7 +1383,7 @@
         <v>130</v>
       </c>
       <c r="B130">
-        <v>57.77954141416155</v>
+        <v>57.77954141416154</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -1735,7 +1735,7 @@
         <v>174</v>
       </c>
       <c r="B174">
-        <v>63.12750172765378</v>
+        <v>63.12750172765377</v>
       </c>
     </row>
     <row r="175" spans="1:2">
@@ -1759,7 +1759,7 @@
         <v>177</v>
       </c>
       <c r="B177">
-        <v>55.15831404437448</v>
+        <v>55.15831404437447</v>
       </c>
     </row>
     <row r="178" spans="1:2">
@@ -1919,7 +1919,7 @@
         <v>197</v>
       </c>
       <c r="B197">
-        <v>65.08521626591157</v>
+        <v>65.08521626591155</v>
       </c>
     </row>
     <row r="198" spans="1:2">
@@ -1967,7 +1967,7 @@
         <v>203</v>
       </c>
       <c r="B203">
-        <v>29.2668065983186</v>
+        <v>29.26680659831859</v>
       </c>
     </row>
     <row r="204" spans="1:2">
@@ -2023,7 +2023,7 @@
         <v>210</v>
       </c>
       <c r="B210">
-        <v>43.35224032294085</v>
+        <v>43.35224032294084</v>
       </c>
     </row>
     <row r="211" spans="1:2">
@@ -2087,7 +2087,7 @@
         <v>218</v>
       </c>
       <c r="B218">
-        <v>60.70937258765902</v>
+        <v>60.70937258765901</v>
       </c>
     </row>
     <row r="219" spans="1:2">
@@ -2103,7 +2103,7 @@
         <v>220</v>
       </c>
       <c r="B220">
-        <v>67.32720971167086</v>
+        <v>67.32720971167085</v>
       </c>
     </row>
     <row r="221" spans="1:2">
@@ -2111,7 +2111,7 @@
         <v>221</v>
       </c>
       <c r="B221">
-        <v>66.56024280349412</v>
+        <v>66.56024280349411</v>
       </c>
     </row>
     <row r="222" spans="1:2">
@@ -2159,7 +2159,7 @@
         <v>227</v>
       </c>
       <c r="B227">
-        <v>19.87982915130731</v>
+        <v>19.8798291513073</v>
       </c>
     </row>
     <row r="228" spans="1:2">
@@ -2319,7 +2319,7 @@
         <v>247</v>
       </c>
       <c r="B247">
-        <v>64.79976507425542</v>
+        <v>64.7997650742554</v>
       </c>
     </row>
     <row r="248" spans="1:2">
@@ -2503,7 +2503,7 @@
         <v>270</v>
       </c>
       <c r="B270">
-        <v>52.67922612833816</v>
+        <v>52.67922612833815</v>
       </c>
     </row>
     <row r="271" spans="1:2">
@@ -2567,7 +2567,7 @@
         <v>278</v>
       </c>
       <c r="B278">
-        <v>6.68477454924209</v>
+        <v>6.684774549242089</v>
       </c>
     </row>
     <row r="279" spans="1:2">
@@ -2623,7 +2623,7 @@
         <v>285</v>
       </c>
       <c r="B285">
-        <v>5.723355006913547</v>
+        <v>5.723355006913546</v>
       </c>
     </row>
     <row r="286" spans="1:2">
@@ -2711,7 +2711,7 @@
         <v>296</v>
       </c>
       <c r="B296">
-        <v>26.16925086939524</v>
+        <v>26.16925086939523</v>
       </c>
     </row>
     <row r="297" spans="1:2">
@@ -2743,7 +2743,7 @@
         <v>300</v>
       </c>
       <c r="B300">
-        <v>0.4396475879374306</v>
+        <v>0.4396475879374305</v>
       </c>
     </row>
     <row r="301" spans="1:2">
@@ -2847,7 +2847,7 @@
         <v>313</v>
       </c>
       <c r="B313">
-        <v>0.9367019309278454</v>
+        <v>0.9367019309278451</v>
       </c>
     </row>
     <row r="314" spans="1:2">
@@ -2911,7 +2911,7 @@
         <v>321</v>
       </c>
       <c r="B321">
-        <v>9.60897875879726</v>
+        <v>9.608978758797258</v>
       </c>
     </row>
     <row r="322" spans="1:2">
@@ -2943,7 +2943,7 @@
         <v>325</v>
       </c>
       <c r="B325">
-        <v>8.906956392787874</v>
+        <v>8.906956392787873</v>
       </c>
     </row>
     <row r="326" spans="1:2">
@@ -3039,7 +3039,7 @@
         <v>337</v>
       </c>
       <c r="B337">
-        <v>49.04397296478283</v>
+        <v>49.04397296478282</v>
       </c>
     </row>
     <row r="338" spans="1:2">
@@ -3063,7 +3063,7 @@
         <v>340</v>
       </c>
       <c r="B340">
-        <v>62.76321442659773</v>
+        <v>62.76321442659772</v>
       </c>
     </row>
     <row r="341" spans="1:2">
@@ -3071,7 +3071,7 @@
         <v>341</v>
       </c>
       <c r="B341">
-        <v>68.95990846805321</v>
+        <v>68.9599084680532</v>
       </c>
     </row>
     <row r="342" spans="1:2">
@@ -3119,7 +3119,7 @@
         <v>347</v>
       </c>
       <c r="B347">
-        <v>31.28064424048003</v>
+        <v>31.28064424048002</v>
       </c>
     </row>
     <row r="348" spans="1:2">
@@ -3191,7 +3191,7 @@
         <v>356</v>
       </c>
       <c r="B356">
-        <v>48.25414651559051</v>
+        <v>48.2541465155905</v>
       </c>
     </row>
     <row r="357" spans="1:2">
@@ -3223,7 +3223,7 @@
         <v>360</v>
       </c>
       <c r="B360">
-        <v>60.91569459887661</v>
+        <v>60.9156945988766</v>
       </c>
     </row>
     <row r="361" spans="1:2">
@@ -3287,7 +3287,7 @@
         <v>368</v>
       </c>
       <c r="B368">
-        <v>92.53102596550789</v>
+        <v>92.53102596550788</v>
       </c>
     </row>
     <row r="369" spans="1:2">
@@ -3311,7 +3311,7 @@
         <v>371</v>
       </c>
       <c r="B371">
-        <v>37.46708079558237</v>
+        <v>37.46708079558236</v>
       </c>
     </row>
     <row r="372" spans="1:2">
@@ -3319,7 +3319,7 @@
         <v>372</v>
       </c>
       <c r="B372">
-        <v>37.69626234781554</v>
+        <v>37.69626234781553</v>
       </c>
     </row>
     <row r="373" spans="1:2">
@@ -3423,7 +3423,7 @@
         <v>385</v>
       </c>
       <c r="B385">
-        <v>60.49279309008829</v>
+        <v>60.49279309008828</v>
       </c>
     </row>
     <row r="386" spans="1:2">
@@ -3447,7 +3447,7 @@
         <v>388</v>
       </c>
       <c r="B388">
-        <v>80.67190638607656</v>
+        <v>80.67190638607654</v>
       </c>
     </row>
     <row r="389" spans="1:2">
@@ -3519,7 +3519,7 @@
         <v>397</v>
       </c>
       <c r="B397">
-        <v>58.40671343689683</v>
+        <v>58.40671343689682</v>
       </c>
     </row>
     <row r="398" spans="1:2">
@@ -3831,7 +3831,7 @@
         <v>436</v>
       </c>
       <c r="B436">
-        <v>113.1362645517098</v>
+        <v>113.1362645517097</v>
       </c>
     </row>
     <row r="437" spans="1:2">
@@ -3951,7 +3951,7 @@
         <v>451</v>
       </c>
       <c r="B451">
-        <v>99.13919174524391</v>
+        <v>99.13919174524388</v>
       </c>
     </row>
     <row r="452" spans="1:2">
@@ -3991,7 +3991,7 @@
         <v>456</v>
       </c>
       <c r="B456">
-        <v>85.74613834945909</v>
+        <v>85.74613834945907</v>
       </c>
     </row>
     <row r="457" spans="1:2">
@@ -4071,7 +4071,7 @@
         <v>466</v>
       </c>
       <c r="B466">
-        <v>78.45775468899009</v>
+        <v>78.45775468899008</v>
       </c>
     </row>
     <row r="467" spans="1:2">
@@ -4143,7 +4143,7 @@
         <v>475</v>
       </c>
       <c r="B475">
-        <v>50.3915136005477</v>
+        <v>50.39151360054769</v>
       </c>
     </row>
     <row r="476" spans="1:2">
@@ -4223,7 +4223,7 @@
         <v>485</v>
       </c>
       <c r="B485">
-        <v>89.23397678056776</v>
+        <v>89.23397678056774</v>
       </c>
     </row>
     <row r="486" spans="1:2">
@@ -4271,7 +4271,7 @@
         <v>491</v>
       </c>
       <c r="B491">
-        <v>53.39519867578783</v>
+        <v>53.39519867578782</v>
       </c>
     </row>
     <row r="492" spans="1:2">
@@ -4279,7 +4279,7 @@
         <v>492</v>
       </c>
       <c r="B492">
-        <v>54.87256978167967</v>
+        <v>54.87256978167966</v>
       </c>
     </row>
     <row r="493" spans="1:2">
@@ -4343,7 +4343,7 @@
         <v>500</v>
       </c>
       <c r="B500">
-        <v>87.2601433351836</v>
+        <v>87.26014333518359</v>
       </c>
     </row>
     <row r="501" spans="1:2">
@@ -4351,7 +4351,7 @@
         <v>501</v>
       </c>
       <c r="B501">
-        <v>87.5482321661877</v>
+        <v>87.54823216618769</v>
       </c>
     </row>
     <row r="502" spans="1:2">
@@ -4439,7 +4439,7 @@
         <v>512</v>
       </c>
       <c r="B512">
-        <v>134.6312668112875</v>
+        <v>134.6312668112874</v>
       </c>
     </row>
     <row r="513" spans="1:2">
@@ -4559,7 +4559,7 @@
         <v>527</v>
       </c>
       <c r="B527">
-        <v>86.68660331252335</v>
+        <v>86.68660331252333</v>
       </c>
     </row>
     <row r="528" spans="1:2">
@@ -4567,7 +4567,7 @@
         <v>528</v>
       </c>
       <c r="B528">
-        <v>95.57310334681266</v>
+        <v>95.57310334681264</v>
       </c>
     </row>
     <row r="529" spans="1:2">
@@ -4751,7 +4751,7 @@
         <v>551</v>
       </c>
       <c r="B551">
-        <v>99.55447340702705</v>
+        <v>99.55447340702702</v>
       </c>
     </row>
     <row r="552" spans="1:2">
@@ -4879,7 +4879,7 @@
         <v>567</v>
       </c>
       <c r="B567">
-        <v>88.6279058726161</v>
+        <v>88.62790587261608</v>
       </c>
     </row>
     <row r="568" spans="1:2">
@@ -4951,7 +4951,7 @@
         <v>576</v>
       </c>
       <c r="B576">
-        <v>82.91389983183585</v>
+        <v>82.91389983183583</v>
       </c>
     </row>
     <row r="577" spans="1:2">
@@ -5079,7 +5079,7 @@
         <v>592</v>
       </c>
       <c r="B592">
-        <v>60.90573018356212</v>
+        <v>60.90573018356211</v>
       </c>
     </row>
     <row r="593" spans="1:2">
@@ -5119,7 +5119,7 @@
         <v>597</v>
       </c>
       <c r="B597">
-        <v>44.39703857576854</v>
+        <v>44.39703857576853</v>
       </c>
     </row>
     <row r="598" spans="1:2">
@@ -5143,7 +5143,7 @@
         <v>600</v>
       </c>
       <c r="B600">
-        <v>64.01228319337238</v>
+        <v>64.01228319337237</v>
       </c>
     </row>
     <row r="601" spans="1:2">
@@ -5191,7 +5191,7 @@
         <v>606</v>
       </c>
       <c r="B606">
-        <v>84.17703600846625</v>
+        <v>84.17703600846623</v>
       </c>
     </row>
     <row r="607" spans="1:2">
@@ -5199,7 +5199,7 @@
         <v>607</v>
       </c>
       <c r="B607">
-        <v>89.45846919618235</v>
+        <v>89.45846919618234</v>
       </c>
     </row>
     <row r="608" spans="1:2">
@@ -5215,7 +5215,7 @@
         <v>609</v>
       </c>
       <c r="B609">
-        <v>77.98356574843604</v>
+        <v>77.98356574843602</v>
       </c>
     </row>
     <row r="610" spans="1:2">
@@ -5231,7 +5231,7 @@
         <v>611</v>
       </c>
       <c r="B611">
-        <v>63.03313285320483</v>
+        <v>63.03313285320482</v>
       </c>
     </row>
     <row r="612" spans="1:2">
@@ -5343,7 +5343,7 @@
         <v>625</v>
       </c>
       <c r="B625">
-        <v>80.65402905271822</v>
+        <v>80.6540290527182</v>
       </c>
     </row>
     <row r="626" spans="1:2">
@@ -5399,7 +5399,7 @@
         <v>632</v>
       </c>
       <c r="B632">
-        <v>125.003297049185</v>
+        <v>125.0032970491849</v>
       </c>
     </row>
     <row r="633" spans="1:2">
@@ -5463,7 +5463,7 @@
         <v>640</v>
       </c>
       <c r="B640">
-        <v>43.08994174333894</v>
+        <v>43.08994174333893</v>
       </c>
     </row>
     <row r="641" spans="1:2">
@@ -5631,7 +5631,7 @@
         <v>661</v>
       </c>
       <c r="B661">
-        <v>61.98569696102918</v>
+        <v>61.98569696102917</v>
       </c>
     </row>
     <row r="662" spans="1:2">
@@ -5703,7 +5703,7 @@
         <v>670</v>
       </c>
       <c r="B670">
-        <v>85.861315267653</v>
+        <v>85.86131526765298</v>
       </c>
     </row>
     <row r="671" spans="1:2">
@@ -5807,7 +5807,7 @@
         <v>683</v>
       </c>
       <c r="B683">
-        <v>48.00708762999899</v>
+        <v>48.00708762999898</v>
       </c>
     </row>
     <row r="684" spans="1:2">
@@ -5855,7 +5855,7 @@
         <v>689</v>
       </c>
       <c r="B689">
-        <v>50.21303333800294</v>
+        <v>50.21303333800293</v>
       </c>
     </row>
     <row r="690" spans="1:2">
@@ -5903,7 +5903,7 @@
         <v>695</v>
       </c>
       <c r="B695">
-        <v>52.93683557132148</v>
+        <v>52.93683557132147</v>
       </c>
     </row>
     <row r="696" spans="1:2">
@@ -5967,7 +5967,7 @@
         <v>703</v>
       </c>
       <c r="B703">
-        <v>95.07898557562964</v>
+        <v>95.07898557562962</v>
       </c>
     </row>
     <row r="704" spans="1:2">
@@ -6039,7 +6039,7 @@
         <v>712</v>
       </c>
       <c r="B712">
-        <v>43.48734607176373</v>
+        <v>43.48734607176372</v>
       </c>
     </row>
     <row r="713" spans="1:2">
@@ -6079,7 +6079,7 @@
         <v>717</v>
       </c>
       <c r="B717">
-        <v>50.6796024315518</v>
+        <v>50.67960243155179</v>
       </c>
     </row>
     <row r="718" spans="1:2">
@@ -6215,7 +6215,7 @@
         <v>734</v>
       </c>
       <c r="B734">
-        <v>32.81750876722013</v>
+        <v>32.81750876722012</v>
       </c>
     </row>
     <row r="735" spans="1:2">
@@ -6247,7 +6247,7 @@
         <v>738</v>
       </c>
       <c r="B738">
-        <v>41.88483363236349</v>
+        <v>41.88483363236348</v>
       </c>
     </row>
     <row r="739" spans="1:2">
@@ -6255,7 +6255,7 @@
         <v>739</v>
       </c>
       <c r="B739">
-        <v>49.01056286637544</v>
+        <v>49.01056286637543</v>
       </c>
     </row>
     <row r="740" spans="1:2">
@@ -6503,7 +6503,7 @@
         <v>770</v>
       </c>
       <c r="B770">
-        <v>76.02497199706227</v>
+        <v>76.02497199706225</v>
       </c>
     </row>
     <row r="771" spans="1:2">
@@ -6519,7 +6519,7 @@
         <v>772</v>
       </c>
       <c r="B772">
-        <v>84.97975758335967</v>
+        <v>84.97975758335966</v>
       </c>
     </row>
     <row r="773" spans="1:2">
@@ -6543,7 +6543,7 @@
         <v>775</v>
       </c>
       <c r="B775">
-        <v>104.6219647365204</v>
+        <v>104.6219647365203</v>
       </c>
     </row>
     <row r="776" spans="1:2">
@@ -6631,7 +6631,7 @@
         <v>786</v>
       </c>
       <c r="B786">
-        <v>89.54521822362611</v>
+        <v>89.54521822362609</v>
       </c>
     </row>
     <row r="787" spans="1:2">
@@ -6791,7 +6791,7 @@
         <v>806</v>
       </c>
       <c r="B806">
-        <v>87.76950080037702</v>
+        <v>87.769500800377</v>
       </c>
     </row>
     <row r="807" spans="1:2">
@@ -7055,7 +7055,7 @@
         <v>839</v>
       </c>
       <c r="B839">
-        <v>114.4887873951319</v>
+        <v>114.4887873951318</v>
       </c>
     </row>
     <row r="840" spans="1:2">
@@ -7119,7 +7119,7 @@
         <v>847</v>
       </c>
       <c r="B847">
-        <v>197.6866730634306</v>
+        <v>197.6866730634305</v>
       </c>
     </row>
     <row r="848" spans="1:2">
@@ -7167,7 +7167,7 @@
         <v>853</v>
       </c>
       <c r="B853">
-        <v>72.70740783941584</v>
+        <v>72.70740783941582</v>
       </c>
     </row>
     <row r="854" spans="1:2">
@@ -7175,7 +7175,7 @@
         <v>854</v>
       </c>
       <c r="B854">
-        <v>66.63644127354607</v>
+        <v>66.63644127354605</v>
       </c>
     </row>
     <row r="855" spans="1:2">
@@ -7215,7 +7215,7 @@
         <v>859</v>
       </c>
       <c r="B859">
-        <v>92.77339571448084</v>
+        <v>92.7733957144808</v>
       </c>
     </row>
     <row r="860" spans="1:2">
@@ -7311,7 +7311,7 @@
         <v>871</v>
       </c>
       <c r="B871">
-        <v>170.9131683265234</v>
+        <v>170.9131683265233</v>
       </c>
     </row>
     <row r="872" spans="1:2">
@@ -7327,7 +7327,7 @@
         <v>873</v>
       </c>
       <c r="B873">
-        <v>106.4029574384654</v>
+        <v>106.4029574384653</v>
       </c>
     </row>
     <row r="874" spans="1:2">
@@ -7431,7 +7431,7 @@
         <v>886</v>
       </c>
       <c r="B886">
-        <v>76.19260863117655</v>
+        <v>76.19260863117654</v>
       </c>
     </row>
     <row r="887" spans="1:2">
@@ -7463,7 +7463,7 @@
         <v>890</v>
       </c>
       <c r="B890">
-        <v>97.21635266058682</v>
+        <v>97.21635266058679</v>
       </c>
     </row>
     <row r="891" spans="1:2">
@@ -7543,7 +7543,7 @@
         <v>900</v>
       </c>
       <c r="B900">
-        <v>73.92277343674444</v>
+        <v>73.92277343674442</v>
       </c>
     </row>
     <row r="901" spans="1:2">
@@ -7551,7 +7551,7 @@
         <v>901</v>
       </c>
       <c r="B901">
-        <v>68.55722886093253</v>
+        <v>68.55722886093251</v>
       </c>
     </row>
     <row r="902" spans="1:2">
@@ -7639,7 +7639,7 @@
         <v>912</v>
       </c>
       <c r="B912">
-        <v>54.39369170450703</v>
+        <v>54.39369170450702</v>
       </c>
     </row>
     <row r="913" spans="1:2">
@@ -7735,7 +7735,7 @@
         <v>924</v>
       </c>
       <c r="B924">
-        <v>47.16099154138369</v>
+        <v>47.16099154138368</v>
       </c>
     </row>
     <row r="925" spans="1:2">
@@ -7791,7 +7791,7 @@
         <v>931</v>
       </c>
       <c r="B931">
-        <v>43.72150983165414</v>
+        <v>43.72150983165413</v>
       </c>
     </row>
     <row r="932" spans="1:2">
@@ -7807,7 +7807,7 @@
         <v>933</v>
       </c>
       <c r="B933">
-        <v>27.09028522259625</v>
+        <v>27.09028522259624</v>
       </c>
     </row>
     <row r="934" spans="1:2">
@@ -7831,7 +7831,7 @@
         <v>936</v>
       </c>
       <c r="B936">
-        <v>39.94616871161869</v>
+        <v>39.94616871161868</v>
       </c>
     </row>
     <row r="937" spans="1:2">
@@ -7839,7 +7839,7 @@
         <v>937</v>
       </c>
       <c r="B937">
-        <v>45.16869462056386</v>
+        <v>45.16869462056385</v>
       </c>
     </row>
     <row r="938" spans="1:2">
@@ -8039,7 +8039,7 @@
         <v>962</v>
       </c>
       <c r="B962">
-        <v>41.17911857126697</v>
+        <v>41.17911857126696</v>
       </c>
     </row>
     <row r="963" spans="1:2">
@@ -8119,7 +8119,7 @@
         <v>972</v>
       </c>
       <c r="B972">
-        <v>18.86712217721303</v>
+        <v>18.86712217721302</v>
       </c>
     </row>
     <row r="973" spans="1:2">
@@ -8303,7 +8303,7 @@
         <v>995</v>
       </c>
       <c r="B995">
-        <v>5.241751369081357</v>
+        <v>5.241751369081356</v>
       </c>
     </row>
     <row r="996" spans="1:2">
@@ -8327,7 +8327,7 @@
         <v>998</v>
       </c>
       <c r="B998">
-        <v>5.156379775519308</v>
+        <v>5.156379775519307</v>
       </c>
     </row>
     <row r="999" spans="1:2">
@@ -8431,7 +8431,7 @@
         <v>1011</v>
       </c>
       <c r="B1011">
-        <v>56.3833509859789</v>
+        <v>56.38335098597889</v>
       </c>
     </row>
     <row r="1012" spans="1:2">
@@ -8455,7 +8455,7 @@
         <v>1014</v>
       </c>
       <c r="B1014">
-        <v>75.08978231269391</v>
+        <v>75.0897823126939</v>
       </c>
     </row>
     <row r="1015" spans="1:2">
@@ -8575,7 +8575,7 @@
         <v>1029</v>
       </c>
       <c r="B1029">
-        <v>48.72774931406724</v>
+        <v>48.72774931406723</v>
       </c>
     </row>
     <row r="1030" spans="1:2">
@@ -8591,7 +8591,7 @@
         <v>1031</v>
       </c>
       <c r="B1031">
-        <v>61.28261953928061</v>
+        <v>61.2826195392806</v>
       </c>
     </row>
     <row r="1032" spans="1:2">
@@ -8751,7 +8751,7 @@
         <v>1051</v>
       </c>
       <c r="B1051">
-        <v>50.7402681365547</v>
+        <v>50.74026813655469</v>
       </c>
     </row>
     <row r="1052" spans="1:2">
@@ -8831,7 +8831,7 @@
         <v>1061</v>
       </c>
       <c r="B1061">
-        <v>63.90150234075839</v>
+        <v>63.90150234075838</v>
       </c>
     </row>
     <row r="1062" spans="1:2">
@@ -8855,7 +8855,7 @@
         <v>1064</v>
       </c>
       <c r="B1064">
-        <v>59.49166242202113</v>
+        <v>59.49166242202112</v>
       </c>
     </row>
     <row r="1065" spans="1:2">
@@ -8959,7 +8959,7 @@
         <v>1077</v>
       </c>
       <c r="B1077">
-        <v>16.82421188801639</v>
+        <v>16.82421188801638</v>
       </c>
     </row>
     <row r="1078" spans="1:2">
@@ -9047,7 +9047,7 @@
         <v>1088</v>
       </c>
       <c r="B1088">
-        <v>67.79348573418106</v>
+        <v>67.79348573418105</v>
       </c>
     </row>
     <row r="1089" spans="1:2">
@@ -9063,7 +9063,7 @@
         <v>1090</v>
       </c>
       <c r="B1090">
-        <v>60.42186989873224</v>
+        <v>60.42186989873223</v>
       </c>
     </row>
     <row r="1091" spans="1:2">
@@ -9087,7 +9087,7 @@
         <v>1093</v>
       </c>
       <c r="B1093">
-        <v>43.22504749216182</v>
+        <v>43.22504749216181</v>
       </c>
     </row>
     <row r="1094" spans="1:2">
@@ -9103,7 +9103,7 @@
         <v>1095</v>
       </c>
       <c r="B1095">
-        <v>22.82601368876208</v>
+        <v>22.82601368876207</v>
       </c>
     </row>
     <row r="1096" spans="1:2">
@@ -9143,7 +9143,7 @@
         <v>1100</v>
       </c>
       <c r="B1100">
-        <v>36.15500175549553</v>
+        <v>36.15500175549552</v>
       </c>
     </row>
     <row r="1101" spans="1:2">
@@ -9231,7 +9231,7 @@
         <v>1111</v>
       </c>
       <c r="B1111">
-        <v>88.6073908999098</v>
+        <v>88.60739089990979</v>
       </c>
     </row>
     <row r="1112" spans="1:2">
@@ -9255,7 +9255,7 @@
         <v>1114</v>
       </c>
       <c r="B1114">
-        <v>84.77050486175547</v>
+        <v>84.77050486175546</v>
       </c>
     </row>
     <row r="1115" spans="1:2">
@@ -9319,7 +9319,7 @@
         <v>1122</v>
       </c>
       <c r="B1122">
-        <v>87.97347824328531</v>
+        <v>87.9734782432853</v>
       </c>
     </row>
     <row r="1123" spans="1:2">
@@ -9503,7 +9503,7 @@
         <v>1145</v>
       </c>
       <c r="B1145">
-        <v>71.52574541153329</v>
+        <v>71.52574541153328</v>
       </c>
     </row>
     <row r="1146" spans="1:2">
@@ -9615,7 +9615,7 @@
         <v>1159</v>
       </c>
       <c r="B1159">
-        <v>88.56225795995596</v>
+        <v>88.56225795995594</v>
       </c>
     </row>
     <row r="1160" spans="1:2">
@@ -9623,7 +9623,7 @@
         <v>1160</v>
       </c>
       <c r="B1160">
-        <v>79.76719608972898</v>
+        <v>79.76719608972897</v>
       </c>
     </row>
     <row r="1161" spans="1:2">
@@ -9711,7 +9711,7 @@
         <v>1171</v>
       </c>
       <c r="B1171">
-        <v>57.70803208072818</v>
+        <v>57.70803208072817</v>
       </c>
     </row>
     <row r="1172" spans="1:2">
@@ -9743,7 +9743,7 @@
         <v>1175</v>
       </c>
       <c r="B1175">
-        <v>60.56400935248299</v>
+        <v>60.56400935248298</v>
       </c>
     </row>
     <row r="1176" spans="1:2">
@@ -9951,7 +9951,7 @@
         <v>1201</v>
       </c>
       <c r="B1201">
-        <v>53.86147469829803</v>
+        <v>53.86147469829802</v>
       </c>
     </row>
     <row r="1202" spans="1:2">
@@ -9983,7 +9983,7 @@
         <v>1205</v>
       </c>
       <c r="B1205">
-        <v>53.73633336478963</v>
+        <v>53.73633336478962</v>
       </c>
     </row>
     <row r="1206" spans="1:2">
@@ -9991,7 +9991,7 @@
         <v>1206</v>
       </c>
       <c r="B1206">
-        <v>55.07420265627867</v>
+        <v>55.07420265627866</v>
       </c>
     </row>
     <row r="1207" spans="1:2">
@@ -10047,7 +10047,7 @@
         <v>1213</v>
       </c>
       <c r="B1213">
-        <v>31.55466566162839</v>
+        <v>31.55466566162838</v>
       </c>
     </row>
     <row r="1214" spans="1:2">
@@ -10087,7 +10087,7 @@
         <v>1218</v>
       </c>
       <c r="B1218">
-        <v>24.09949527305722</v>
+        <v>24.09949527305721</v>
       </c>
     </row>
     <row r="1219" spans="1:2">
@@ -10119,7 +10119,7 @@
         <v>1222</v>
       </c>
       <c r="B1222">
-        <v>5.128889712092874</v>
+        <v>5.128889712092873</v>
       </c>
     </row>
     <row r="1223" spans="1:2">
@@ -10167,7 +10167,7 @@
         <v>1228</v>
       </c>
       <c r="B1228">
-        <v>23.52528118700805</v>
+        <v>23.52528118700804</v>
       </c>
     </row>
     <row r="1229" spans="1:2">
@@ -10319,7 +10319,7 @@
         <v>1247</v>
       </c>
       <c r="B1247">
-        <v>2.8205567060222</v>
+        <v>2.820556706022199</v>
       </c>
     </row>
     <row r="1248" spans="1:2">
@@ -10511,7 +10511,7 @@
         <v>1271</v>
       </c>
       <c r="B1271">
-        <v>5.995705923141535</v>
+        <v>5.995705923141534</v>
       </c>
     </row>
     <row r="1272" spans="1:2">
@@ -10559,7 +10559,7 @@
         <v>1277</v>
       </c>
       <c r="B1277">
-        <v>28.32651747787754</v>
+        <v>28.32651747787753</v>
       </c>
     </row>
     <row r="1278" spans="1:2">
@@ -10767,7 +10767,7 @@
         <v>1303</v>
       </c>
       <c r="B1303">
-        <v>31.6387770497242</v>
+        <v>31.63877704972419</v>
       </c>
     </row>
     <row r="1304" spans="1:2">
@@ -10783,7 +10783,7 @@
         <v>1305</v>
       </c>
       <c r="B1305">
-        <v>6.65869122680123</v>
+        <v>6.658691226801229</v>
       </c>
     </row>
     <row r="1306" spans="1:2">
@@ -10823,7 +10823,7 @@
         <v>1310</v>
       </c>
       <c r="B1310">
-        <v>0.2791791783577589</v>
+        <v>0.2791791783577588</v>
       </c>
     </row>
     <row r="1311" spans="1:2">
@@ -10847,7 +10847,7 @@
         <v>1313</v>
       </c>
       <c r="B1313">
-        <v>0.8667722503928619</v>
+        <v>0.8667722503928618</v>
       </c>
     </row>
     <row r="1314" spans="1:2">
@@ -10879,7 +10879,7 @@
         <v>1317</v>
       </c>
       <c r="B1317">
-        <v>1.719002315847348</v>
+        <v>1.719002315847347</v>
       </c>
     </row>
     <row r="1318" spans="1:2">
@@ -10895,7 +10895,7 @@
         <v>1319</v>
       </c>
       <c r="B1319">
-        <v>2.970685276286861</v>
+        <v>2.97068527628686</v>
       </c>
     </row>
     <row r="1320" spans="1:2">
@@ -11151,7 +11151,7 @@
         <v>1351</v>
       </c>
       <c r="B1351">
-        <v>29.44895024884662</v>
+        <v>29.44895024884661</v>
       </c>
     </row>
     <row r="1352" spans="1:2">
@@ -11303,7 +11303,7 @@
         <v>1370</v>
       </c>
       <c r="B1370">
-        <v>24.79328234288022</v>
+        <v>24.79328234288021</v>
       </c>
     </row>
     <row r="1371" spans="1:2">
@@ -11319,7 +11319,7 @@
         <v>1372</v>
       </c>
       <c r="B1372">
-        <v>28.70041750900168</v>
+        <v>28.70041750900167</v>
       </c>
     </row>
     <row r="1373" spans="1:2">
@@ -11695,7 +11695,7 @@
         <v>1419</v>
       </c>
       <c r="B1419">
-        <v>54.4446860652341</v>
+        <v>54.44468606523409</v>
       </c>
     </row>
     <row r="1420" spans="1:2">
@@ -11703,7 +11703,7 @@
         <v>1420</v>
       </c>
       <c r="B1420">
-        <v>59.49166242202113</v>
+        <v>59.49166242202112</v>
       </c>
     </row>
     <row r="1421" spans="1:2">
@@ -11711,7 +11711,7 @@
         <v>1421</v>
       </c>
       <c r="B1421">
-        <v>62.58707873236226</v>
+        <v>62.58707873236225</v>
       </c>
     </row>
     <row r="1422" spans="1:2">
@@ -11759,7 +11759,7 @@
         <v>1427</v>
       </c>
       <c r="B1427">
-        <v>28.7932624140496</v>
+        <v>28.79326241404959</v>
       </c>
     </row>
     <row r="1428" spans="1:2">
@@ -11791,7 +11791,7 @@
         <v>1431</v>
       </c>
       <c r="B1431">
-        <v>27.00083994159681</v>
+        <v>27.0008399415968</v>
       </c>
     </row>
     <row r="1432" spans="1:2">
@@ -11911,7 +11911,7 @@
         <v>1446</v>
       </c>
       <c r="B1446">
-        <v>87.44038202396032</v>
+        <v>87.44038202396031</v>
       </c>
     </row>
     <row r="1447" spans="1:2">
@@ -11943,7 +11943,7 @@
         <v>1450</v>
       </c>
       <c r="B1450">
-        <v>51.7774465423772</v>
+        <v>51.77744654237719</v>
       </c>
     </row>
     <row r="1451" spans="1:2">
@@ -11959,7 +11959,7 @@
         <v>1452</v>
       </c>
       <c r="B1452">
-        <v>37.46473622727308</v>
+        <v>37.46473622727307</v>
       </c>
     </row>
     <row r="1453" spans="1:2">
@@ -12031,7 +12031,7 @@
         <v>1461</v>
       </c>
       <c r="B1461">
-        <v>47.21198590211076</v>
+        <v>47.21198590211075</v>
       </c>
     </row>
     <row r="1462" spans="1:2">
@@ -12247,7 +12247,7 @@
         <v>1488</v>
       </c>
       <c r="B1488">
-        <v>71.33231852601681</v>
+        <v>71.33231852601679</v>
       </c>
     </row>
     <row r="1489" spans="1:2">
@@ -12463,7 +12463,7 @@
         <v>1515</v>
       </c>
       <c r="B1515">
-        <v>53.70057869807295</v>
+        <v>53.70057869807294</v>
       </c>
     </row>
     <row r="1516" spans="1:2">
@@ -12615,7 +12615,7 @@
         <v>1534</v>
       </c>
       <c r="B1534">
-        <v>32.08893416510802</v>
+        <v>32.08893416510801</v>
       </c>
     </row>
     <row r="1535" spans="1:2">
@@ -12743,7 +12743,7 @@
         <v>1550</v>
       </c>
       <c r="B1550">
-        <v>7.269920185033332</v>
+        <v>7.269920185033331</v>
       </c>
     </row>
     <row r="1551" spans="1:2">
@@ -12791,7 +12791,7 @@
         <v>1556</v>
       </c>
       <c r="B1556">
-        <v>7.289995551181634</v>
+        <v>7.289995551181633</v>
       </c>
     </row>
     <row r="1557" spans="1:2">
@@ -12823,7 +12823,7 @@
         <v>1560</v>
       </c>
       <c r="B1560">
-        <v>24.67869156676364</v>
+        <v>24.67869156676363</v>
       </c>
     </row>
     <row r="1561" spans="1:2">
@@ -13175,7 +13175,7 @@
         <v>1604</v>
       </c>
       <c r="B1604">
-        <v>55.60143745483043</v>
+        <v>55.60143745483042</v>
       </c>
     </row>
     <row r="1605" spans="1:2">
@@ -13191,7 +13191,7 @@
         <v>1606</v>
       </c>
       <c r="B1606">
-        <v>62.81391571628614</v>
+        <v>62.81391571628613</v>
       </c>
     </row>
     <row r="1607" spans="1:2">
@@ -13351,7 +13351,7 @@
         <v>1626</v>
       </c>
       <c r="B1626">
-        <v>31.75483318103409</v>
+        <v>31.75483318103408</v>
       </c>
     </row>
     <row r="1627" spans="1:2">
@@ -13383,7 +13383,7 @@
         <v>1630</v>
       </c>
       <c r="B1630">
-        <v>52.83982905752458</v>
+        <v>52.83982905752457</v>
       </c>
     </row>
     <row r="1631" spans="1:2">
@@ -13439,7 +13439,7 @@
         <v>1637</v>
       </c>
       <c r="B1637">
-        <v>91.68991208454985</v>
+        <v>91.68991208454982</v>
       </c>
     </row>
     <row r="1638" spans="1:2">
@@ -13471,7 +13471,7 @@
         <v>1641</v>
       </c>
       <c r="B1641">
-        <v>56.5008724724821</v>
+        <v>56.50087247248209</v>
       </c>
     </row>
     <row r="1642" spans="1:2">
@@ -13551,7 +13551,7 @@
         <v>1651</v>
       </c>
       <c r="B1651">
-        <v>28.33689219264615</v>
+        <v>28.33689219264614</v>
       </c>
     </row>
     <row r="1652" spans="1:2">
@@ -13591,7 +13591,7 @@
         <v>1656</v>
       </c>
       <c r="B1656">
-        <v>60.70937258765902</v>
+        <v>60.70937258765901</v>
       </c>
     </row>
     <row r="1657" spans="1:2">
@@ -13631,7 +13631,7 @@
         <v>1661</v>
       </c>
       <c r="B1661">
-        <v>74.56518515349011</v>
+        <v>74.56518515349009</v>
       </c>
     </row>
     <row r="1662" spans="1:2">
@@ -13647,7 +13647,7 @@
         <v>1663</v>
       </c>
       <c r="B1663">
-        <v>73.17368386192604</v>
+        <v>73.17368386192602</v>
       </c>
     </row>
     <row r="1664" spans="1:2">
@@ -13663,7 +13663,7 @@
         <v>1665</v>
       </c>
       <c r="B1665">
-        <v>23.97312304118645</v>
+        <v>23.97312304118644</v>
       </c>
     </row>
     <row r="1666" spans="1:2">
@@ -13703,7 +13703,7 @@
         <v>1670</v>
       </c>
       <c r="B1670">
-        <v>15.07654136316719</v>
+        <v>15.07654136316718</v>
       </c>
     </row>
     <row r="1671" spans="1:2">
@@ -13791,7 +13791,7 @@
         <v>1681</v>
       </c>
       <c r="B1681">
-        <v>47.21960574911596</v>
+        <v>47.21960574911595</v>
       </c>
     </row>
     <row r="1682" spans="1:2">
@@ -13807,7 +13807,7 @@
         <v>1683</v>
       </c>
       <c r="B1683">
-        <v>58.93365516440993</v>
+        <v>58.93365516440992</v>
       </c>
     </row>
     <row r="1684" spans="1:2">
@@ -13847,7 +13847,7 @@
         <v>1688</v>
       </c>
       <c r="B1688">
-        <v>46.57748710340895</v>
+        <v>46.57748710340894</v>
       </c>
     </row>
     <row r="1689" spans="1:2">
@@ -13927,7 +13927,7 @@
         <v>1698</v>
       </c>
       <c r="B1698">
-        <v>9.180245136339581</v>
+        <v>9.180245136339575</v>
       </c>
     </row>
     <row r="1699" spans="1:2">
@@ -13975,7 +13975,7 @@
         <v>1704</v>
       </c>
       <c r="B1704">
-        <v>37.1332728825471</v>
+        <v>37.13327288254709</v>
       </c>
     </row>
     <row r="1705" spans="1:2">
@@ -14055,7 +14055,7 @@
         <v>1714</v>
       </c>
       <c r="B1714">
-        <v>42.64124998314842</v>
+        <v>42.64124998314841</v>
       </c>
     </row>
     <row r="1715" spans="1:2">
@@ -14087,7 +14087,7 @@
         <v>1718</v>
       </c>
       <c r="B1718">
-        <v>21.81468414854951</v>
+        <v>21.8146841485495</v>
       </c>
     </row>
     <row r="1719" spans="1:2">
@@ -14183,7 +14183,7 @@
         <v>1730</v>
       </c>
       <c r="B1730">
-        <v>48.43760898579251</v>
+        <v>48.4376089857925</v>
       </c>
     </row>
     <row r="1731" spans="1:2">
@@ -14199,7 +14199,7 @@
         <v>1732</v>
       </c>
       <c r="B1732">
-        <v>54.62052868843091</v>
+        <v>54.6205286884309</v>
       </c>
     </row>
     <row r="1733" spans="1:2">
@@ -14207,7 +14207,7 @@
         <v>1733</v>
       </c>
       <c r="B1733">
-        <v>61.60851453427203</v>
+        <v>61.60851453427202</v>
       </c>
     </row>
     <row r="1734" spans="1:2">
@@ -14343,7 +14343,7 @@
         <v>1750</v>
       </c>
       <c r="B1750">
-        <v>22.95619584413545</v>
+        <v>22.95619584413544</v>
       </c>
     </row>
     <row r="1751" spans="1:2">
@@ -14463,7 +14463,7 @@
         <v>1765</v>
       </c>
       <c r="B1765">
-        <v>17.7232659133178</v>
+        <v>17.72326591331779</v>
       </c>
     </row>
     <row r="1766" spans="1:2">
@@ -14559,7 +14559,7 @@
         <v>1777</v>
       </c>
       <c r="B1777">
-        <v>51.05649178727029</v>
+        <v>51.05649178727028</v>
       </c>
     </row>
     <row r="1778" spans="1:2">
@@ -14583,7 +14583,7 @@
         <v>1780</v>
       </c>
       <c r="B1780">
-        <v>60.95379383390258</v>
+        <v>60.95379383390257</v>
       </c>
     </row>
     <row r="1781" spans="1:2">
@@ -14615,7 +14615,7 @@
         <v>1784</v>
       </c>
       <c r="B1784">
-        <v>54.25624138737486</v>
+        <v>54.25624138737485</v>
       </c>
     </row>
     <row r="1785" spans="1:2">
@@ -14767,7 +14767,7 @@
         <v>1803</v>
       </c>
       <c r="B1803">
-        <v>51.39791954731076</v>
+        <v>51.39791954731075</v>
       </c>
     </row>
     <row r="1804" spans="1:2">
@@ -14783,7 +14783,7 @@
         <v>1805</v>
       </c>
       <c r="B1805">
-        <v>64.07119047214331</v>
+        <v>64.0711904721433</v>
       </c>
     </row>
     <row r="1806" spans="1:2">
@@ -14791,7 +14791,7 @@
         <v>1806</v>
       </c>
       <c r="B1806">
-        <v>72.47295100848676</v>
+        <v>72.47295100848675</v>
       </c>
     </row>
     <row r="1807" spans="1:2">
@@ -14935,7 +14935,7 @@
         <v>1824</v>
       </c>
       <c r="B1824">
-        <v>53.67508151770941</v>
+        <v>53.6750815177094</v>
       </c>
     </row>
     <row r="1825" spans="1:2">
@@ -15039,7 +15039,7 @@
         <v>1837</v>
       </c>
       <c r="B1837">
-        <v>5.053511840949176</v>
+        <v>5.053511840949175</v>
       </c>
     </row>
     <row r="1838" spans="1:2">
@@ -15087,7 +15087,7 @@
         <v>1843</v>
       </c>
       <c r="B1843">
-        <v>7.10843804273093</v>
+        <v>7.108438042730929</v>
       </c>
     </row>
     <row r="1844" spans="1:2">
@@ -15143,7 +15143,7 @@
         <v>1850</v>
       </c>
       <c r="B1850">
-        <v>41.12314200288265</v>
+        <v>41.12314200288264</v>
       </c>
     </row>
     <row r="1851" spans="1:2">
@@ -15167,7 +15167,7 @@
         <v>1853</v>
       </c>
       <c r="B1853">
-        <v>55.1937756400525</v>
+        <v>55.19377564005249</v>
       </c>
     </row>
     <row r="1854" spans="1:2">
@@ -15183,7 +15183,7 @@
         <v>1855</v>
       </c>
       <c r="B1855">
-        <v>63.76639659193551</v>
+        <v>63.7663965919355</v>
       </c>
     </row>
     <row r="1856" spans="1:2">
@@ -15247,7 +15247,7 @@
         <v>1863</v>
       </c>
       <c r="B1863">
-        <v>1.626133965116341</v>
+        <v>1.62613396511634</v>
       </c>
     </row>
     <row r="1864" spans="1:2">
@@ -15311,7 +15311,7 @@
         <v>1871</v>
       </c>
       <c r="B1871">
-        <v>8.419608562597924</v>
+        <v>8.419608562597922</v>
       </c>
     </row>
     <row r="1872" spans="1:2">
@@ -15455,7 +15455,7 @@
         <v>1889</v>
       </c>
       <c r="B1889">
-        <v>9.734940691213907</v>
+        <v>9.734940691213906</v>
       </c>
     </row>
     <row r="1890" spans="1:2">
@@ -15471,7 +15471,7 @@
         <v>1891</v>
       </c>
       <c r="B1891">
-        <v>8.450175871930302</v>
+        <v>8.4501758719303</v>
       </c>
     </row>
     <row r="1892" spans="1:2">
@@ -15543,7 +15543,7 @@
         <v>1900</v>
       </c>
       <c r="B1900">
-        <v>46.25422974776549</v>
+        <v>46.25422974776548</v>
       </c>
     </row>
     <row r="1901" spans="1:2">
@@ -15647,7 +15647,7 @@
         <v>1913</v>
       </c>
       <c r="B1913">
-        <v>4.628939827240485</v>
+        <v>4.628939827240484</v>
       </c>
     </row>
     <row r="1914" spans="1:2">
@@ -15655,7 +15655,7 @@
         <v>1914</v>
       </c>
       <c r="B1914">
-        <v>6.4125115543257</v>
+        <v>6.412511554325699</v>
       </c>
     </row>
     <row r="1915" spans="1:2">
@@ -15751,7 +15751,7 @@
         <v>1926</v>
       </c>
       <c r="B1926">
-        <v>80.67659552269514</v>
+        <v>80.67659552269512</v>
       </c>
     </row>
     <row r="1927" spans="1:2">
@@ -15807,7 +15807,7 @@
         <v>1933</v>
       </c>
       <c r="B1933">
-        <v>4.922479779563688</v>
+        <v>4.922479779563687</v>
       </c>
     </row>
     <row r="1934" spans="1:2">
@@ -15855,7 +15855,7 @@
         <v>1939</v>
       </c>
       <c r="B1939">
-        <v>1.877673906888987</v>
+        <v>1.877673906888986</v>
       </c>
     </row>
     <row r="1940" spans="1:2">
@@ -16015,7 +16015,7 @@
         <v>1959</v>
       </c>
       <c r="B1959">
-        <v>43.19163739375443</v>
+        <v>43.19163739375442</v>
       </c>
     </row>
     <row r="1960" spans="1:2">
@@ -16039,7 +16039,7 @@
         <v>1962</v>
       </c>
       <c r="B1962">
-        <v>31.22466767209572</v>
+        <v>31.22466767209571</v>
       </c>
     </row>
     <row r="1963" spans="1:2">
@@ -16095,7 +16095,7 @@
         <v>1969</v>
       </c>
       <c r="B1969">
-        <v>49.30099626568883</v>
+        <v>49.30099626568882</v>
       </c>
     </row>
     <row r="1970" spans="1:2">
@@ -16103,7 +16103,7 @@
         <v>1970</v>
       </c>
       <c r="B1970">
-        <v>55.97334460289168</v>
+        <v>55.97334460289167</v>
       </c>
     </row>
     <row r="1971" spans="1:2">
@@ -16159,7 +16159,7 @@
         <v>1977</v>
       </c>
       <c r="B1977">
-        <v>51.69597279362935</v>
+        <v>51.69597279362934</v>
       </c>
     </row>
     <row r="1978" spans="1:2">
@@ -16295,7 +16295,7 @@
         <v>1994</v>
       </c>
       <c r="B1994">
-        <v>46.93679219680776</v>
+        <v>46.93679219680775</v>
       </c>
     </row>
     <row r="1995" spans="1:2">
@@ -16335,7 +16335,7 @@
         <v>1999</v>
       </c>
       <c r="B1999">
-        <v>47.31397462356491</v>
+        <v>47.3139746235649</v>
       </c>
     </row>
     <row r="2000" spans="1:2">
@@ -16367,7 +16367,7 @@
         <v>2003</v>
       </c>
       <c r="B2003">
-        <v>27.7283887950736</v>
+        <v>27.72838879507359</v>
       </c>
     </row>
     <row r="2004" spans="1:2">
@@ -16391,7 +16391,7 @@
         <v>2006</v>
       </c>
       <c r="B2006">
-        <v>30.88089534374596</v>
+        <v>30.88089534374595</v>
       </c>
     </row>
     <row r="2007" spans="1:2">
@@ -16399,7 +16399,7 @@
         <v>2007</v>
       </c>
       <c r="B2007">
-        <v>34.36404463823605</v>
+        <v>34.36404463823604</v>
       </c>
     </row>
     <row r="2008" spans="1:2">
@@ -16503,7 +16503,7 @@
         <v>2020</v>
       </c>
       <c r="B2020">
-        <v>46.941774404465</v>
+        <v>46.94177440446499</v>
       </c>
     </row>
     <row r="2021" spans="1:2">
@@ -16663,7 +16663,7 @@
         <v>2040</v>
       </c>
       <c r="B2040">
-        <v>34.59088162215993</v>
+        <v>34.59088162215992</v>
       </c>
     </row>
     <row r="2041" spans="1:2">
@@ -16703,7 +16703,7 @@
         <v>2045</v>
       </c>
       <c r="B2045">
-        <v>50.25406328341553</v>
+        <v>50.25406328341552</v>
       </c>
     </row>
     <row r="2046" spans="1:2">
@@ -16767,7 +16767,7 @@
         <v>2053</v>
       </c>
       <c r="B2053">
-        <v>31.91631532333649</v>
+        <v>31.91631532333648</v>
       </c>
     </row>
     <row r="2054" spans="1:2">
@@ -16839,7 +16839,7 @@
         <v>2062</v>
       </c>
       <c r="B2062">
-        <v>24.21581516830191</v>
+        <v>24.2158151683019</v>
       </c>
     </row>
     <row r="2063" spans="1:2">
@@ -16903,7 +16903,7 @@
         <v>2070</v>
       </c>
       <c r="B2070">
-        <v>56.77342853843715</v>
+        <v>56.77342853843714</v>
       </c>
     </row>
     <row r="2071" spans="1:2">
@@ -16935,7 +16935,7 @@
         <v>2074</v>
       </c>
       <c r="B2074">
-        <v>40.31778278864128</v>
+        <v>40.31778278864127</v>
       </c>
     </row>
     <row r="2075" spans="1:2">
@@ -16951,7 +16951,7 @@
         <v>2076</v>
       </c>
       <c r="B2076">
-        <v>33.35763869147299</v>
+        <v>33.35763869147298</v>
       </c>
     </row>
     <row r="2077" spans="1:2">
@@ -16959,7 +16959,7 @@
         <v>2077</v>
       </c>
       <c r="B2077">
-        <v>31.60566002235547</v>
+        <v>31.60566002235546</v>
       </c>
     </row>
     <row r="2078" spans="1:2">
@@ -16975,7 +16975,7 @@
         <v>2079</v>
       </c>
       <c r="B2079">
-        <v>28.19715592141242</v>
+        <v>28.19715592141241</v>
       </c>
     </row>
     <row r="2080" spans="1:2">
@@ -16991,7 +16991,7 @@
         <v>2081</v>
       </c>
       <c r="B2081">
-        <v>10.3359707773006</v>
+        <v>10.33597077730059</v>
       </c>
     </row>
     <row r="2082" spans="1:2">
@@ -17071,7 +17071,7 @@
         <v>2091</v>
       </c>
       <c r="B2091">
-        <v>35.81357399545506</v>
+        <v>35.81357399545505</v>
       </c>
     </row>
     <row r="2092" spans="1:2">
@@ -17127,7 +17127,7 @@
         <v>2098</v>
       </c>
       <c r="B2098">
-        <v>19.60753684928705</v>
+        <v>19.60753684928704</v>
       </c>
     </row>
     <row r="2099" spans="1:2">
@@ -17159,7 +17159,7 @@
         <v>2102</v>
       </c>
       <c r="B2102">
-        <v>5.020687884619105</v>
+        <v>5.020687884619104</v>
       </c>
     </row>
     <row r="2103" spans="1:2">
@@ -17191,7 +17191,7 @@
         <v>2106</v>
       </c>
       <c r="B2106">
-        <v>0.1635251405129095</v>
+        <v>0.1635251405129094</v>
       </c>
     </row>
     <row r="2107" spans="1:2">
@@ -17287,7 +17287,7 @@
         <v>2118</v>
       </c>
       <c r="B2118">
-        <v>53.68797664341051</v>
+        <v>53.6879766434105</v>
       </c>
     </row>
     <row r="2119" spans="1:2">
@@ -17311,7 +17311,7 @@
         <v>2121</v>
       </c>
       <c r="B2121">
-        <v>9.037607461823102</v>
+        <v>9.0376074618231</v>
       </c>
     </row>
     <row r="2122" spans="1:2">
@@ -17471,7 +17471,7 @@
         <v>2141</v>
       </c>
       <c r="B2141">
-        <v>44.86302152724008</v>
+        <v>44.86302152724007</v>
       </c>
     </row>
     <row r="2142" spans="1:2">
@@ -17591,7 +17591,7 @@
         <v>2156</v>
       </c>
       <c r="B2156">
-        <v>7.245565981720574</v>
+        <v>7.245565981720573</v>
       </c>
     </row>
     <row r="2157" spans="1:2">
@@ -17599,7 +17599,7 @@
         <v>2157</v>
       </c>
       <c r="B2157">
-        <v>7.311213894380716</v>
+        <v>7.311213894380715</v>
       </c>
     </row>
     <row r="2158" spans="1:2">
@@ -17727,7 +17727,7 @@
         <v>2173</v>
       </c>
       <c r="B2173">
-        <v>5.382777152885197</v>
+        <v>5.382777152885196</v>
       </c>
     </row>
     <row r="2174" spans="1:2">
@@ -17871,7 +17871,7 @@
         <v>2191</v>
       </c>
       <c r="B2191">
-        <v>34.11434811329658</v>
+        <v>34.11434811329657</v>
       </c>
     </row>
     <row r="2192" spans="1:2">
@@ -17895,7 +17895,7 @@
         <v>2194</v>
       </c>
       <c r="B2194">
-        <v>5.75600312062042</v>
+        <v>5.756003120620419</v>
       </c>
     </row>
     <row r="2195" spans="1:2">
@@ -18407,7 +18407,7 @@
         <v>2258</v>
       </c>
       <c r="B2258">
-        <v>1.975925972600203</v>
+        <v>1.975925972600202</v>
       </c>
     </row>
     <row r="2259" spans="1:2">
@@ -18423,7 +18423,7 @@
         <v>2260</v>
       </c>
       <c r="B2260">
-        <v>6.530326111867561</v>
+        <v>6.53032611186756</v>
       </c>
     </row>
     <row r="2261" spans="1:2">
@@ -18583,7 +18583,7 @@
         <v>2280</v>
       </c>
       <c r="B2280">
-        <v>6.513474527144534</v>
+        <v>6.513474527144533</v>
       </c>
     </row>
     <row r="2281" spans="1:2">
@@ -18607,7 +18607,7 @@
         <v>2283</v>
       </c>
       <c r="B2283">
-        <v>18.76551444810914</v>
+        <v>18.76551444810913</v>
       </c>
     </row>
     <row r="2284" spans="1:2">
@@ -18815,7 +18815,7 @@
         <v>2309</v>
       </c>
       <c r="B2309">
-        <v>4.616249851266448</v>
+        <v>4.616249851266447</v>
       </c>
     </row>
     <row r="2310" spans="1:2">
@@ -18823,7 +18823,7 @@
         <v>2310</v>
       </c>
       <c r="B2310">
-        <v>6.680407790766036</v>
+        <v>6.680407790766035</v>
       </c>
     </row>
     <row r="2311" spans="1:2">
@@ -19143,7 +19143,7 @@
         <v>2350</v>
       </c>
       <c r="B2350">
-        <v>5.925105109928016</v>
+        <v>5.925105109928015</v>
       </c>
     </row>
     <row r="2351" spans="1:2">
@@ -19159,7 +19159,7 @@
         <v>2352</v>
       </c>
       <c r="B2352">
-        <v>12.41237908621623</v>
+        <v>12.41237908621622</v>
       </c>
     </row>
     <row r="2353" spans="1:2">
@@ -19191,7 +19191,7 @@
         <v>2356</v>
       </c>
       <c r="B2356">
-        <v>42.98267774318889</v>
+        <v>42.98267774318888</v>
       </c>
     </row>
     <row r="2357" spans="1:2">
@@ -19199,7 +19199,7 @@
         <v>2357</v>
       </c>
       <c r="B2357">
-        <v>52.51100335214655</v>
+        <v>52.51100335214654</v>
       </c>
     </row>
     <row r="2358" spans="1:2">
@@ -19327,7 +19327,7 @@
         <v>2373</v>
       </c>
       <c r="B2373">
-        <v>26.7423512854975</v>
+        <v>26.74235128549749</v>
       </c>
     </row>
     <row r="2374" spans="1:2">
@@ -19439,7 +19439,7 @@
         <v>2387</v>
       </c>
       <c r="B2387">
-        <v>21.76805654629849</v>
+        <v>21.76805654629848</v>
       </c>
     </row>
     <row r="2388" spans="1:2">
@@ -19463,7 +19463,7 @@
         <v>2390</v>
       </c>
       <c r="B2390">
-        <v>6.79857403355429</v>
+        <v>6.798574033554289</v>
       </c>
     </row>
     <row r="2391" spans="1:2">
@@ -19567,7 +19567,7 @@
         <v>2403</v>
       </c>
       <c r="B2403">
-        <v>50.28424960039765</v>
+        <v>50.28424960039764</v>
       </c>
     </row>
     <row r="2404" spans="1:2">
@@ -19599,7 +19599,7 @@
         <v>2407</v>
       </c>
       <c r="B2407">
-        <v>53.98632296076776</v>
+        <v>53.98632296076775</v>
       </c>
     </row>
     <row r="2408" spans="1:2">
@@ -19639,7 +19639,7 @@
         <v>2412</v>
       </c>
       <c r="B2412">
-        <v>8.583493887417347</v>
+        <v>8.583493887417346</v>
       </c>
     </row>
     <row r="2413" spans="1:2">
@@ -19695,7 +19695,7 @@
         <v>2419</v>
       </c>
       <c r="B2419">
-        <v>0.5801839431067055</v>
+        <v>0.5801839431067054</v>
       </c>
     </row>
     <row r="2420" spans="1:2">
@@ -19807,7 +19807,7 @@
         <v>2433</v>
       </c>
       <c r="B2433">
-        <v>4.184409675798956</v>
+        <v>4.184409675798955</v>
       </c>
     </row>
     <row r="2434" spans="1:2">
@@ -20175,7 +20175,7 @@
         <v>2479</v>
       </c>
       <c r="B2479">
-        <v>35.24032704383347</v>
+        <v>35.24032704383346</v>
       </c>
     </row>
     <row r="2480" spans="1:2">
@@ -20351,7 +20351,7 @@
         <v>2501</v>
       </c>
       <c r="B2501">
-        <v>46.37644037088727</v>
+        <v>46.37644037088726</v>
       </c>
     </row>
     <row r="2502" spans="1:2">
@@ -20383,7 +20383,7 @@
         <v>2505</v>
       </c>
       <c r="B2505">
-        <v>6.528128079077601</v>
+        <v>6.5281280790776</v>
       </c>
     </row>
     <row r="2506" spans="1:2">
@@ -20463,7 +20463,7 @@
         <v>2515</v>
       </c>
       <c r="B2515">
-        <v>0.3974834576052228</v>
+        <v>0.3974834576052227</v>
       </c>
     </row>
     <row r="2516" spans="1:2">
@@ -20703,7 +20703,7 @@
         <v>2545</v>
       </c>
       <c r="B2545">
-        <v>9.053374683703083</v>
+        <v>9.053374683703082</v>
       </c>
     </row>
     <row r="2546" spans="1:2">
@@ -20759,7 +20759,7 @@
         <v>2552</v>
       </c>
       <c r="B2552">
-        <v>9.263623846838732</v>
+        <v>9.26362384683873</v>
       </c>
     </row>
     <row r="2553" spans="1:2">
@@ -20799,7 +20799,7 @@
         <v>2557</v>
       </c>
       <c r="B2557">
-        <v>3.344673228722604</v>
+        <v>3.344673228722603</v>
       </c>
     </row>
     <row r="2558" spans="1:2">
@@ -20831,7 +20831,7 @@
         <v>2561</v>
       </c>
       <c r="B2561">
-        <v>9.688283781859022</v>
+        <v>9.68828378185902</v>
       </c>
     </row>
     <row r="2562" spans="1:2">
@@ -20847,7 +20847,7 @@
         <v>2563</v>
       </c>
       <c r="B2563">
-        <v>8.328639312197442</v>
+        <v>8.32863931219744</v>
       </c>
     </row>
     <row r="2564" spans="1:2">
@@ -20855,7 +20855,7 @@
         <v>2564</v>
       </c>
       <c r="B2564">
-        <v>5.797120987344607</v>
+        <v>5.797120987344606</v>
       </c>
     </row>
     <row r="2565" spans="1:2">
@@ -20919,7 +20919,7 @@
         <v>2572</v>
       </c>
       <c r="B2572">
-        <v>53.60679596570132</v>
+        <v>53.60679596570131</v>
       </c>
     </row>
     <row r="2573" spans="1:2">
@@ -21127,7 +21127,7 @@
         <v>2598</v>
       </c>
       <c r="B2598">
-        <v>59.93214819312913</v>
+        <v>59.93214819312912</v>
       </c>
     </row>
     <row r="2599" spans="1:2">
@@ -21183,7 +21183,7 @@
         <v>2605</v>
       </c>
       <c r="B2605">
-        <v>0.188263853028391</v>
+        <v>0.1882638530283909</v>
       </c>
     </row>
     <row r="2606" spans="1:2">
@@ -21319,7 +21319,7 @@
         <v>2622</v>
       </c>
       <c r="B2622">
-        <v>54.96166337743272</v>
+        <v>54.96166337743271</v>
       </c>
     </row>
     <row r="2623" spans="1:2">
@@ -21367,7 +21367,7 @@
         <v>2628</v>
       </c>
       <c r="B2628">
-        <v>0.2650130035619854</v>
+        <v>0.2650130035619853</v>
       </c>
     </row>
     <row r="2629" spans="1:2">
@@ -21495,7 +21495,7 @@
         <v>2644</v>
       </c>
       <c r="B2644">
-        <v>39.37526632830639</v>
+        <v>39.37526632830638</v>
       </c>
     </row>
     <row r="2645" spans="1:2">
@@ -21655,7 +21655,7 @@
         <v>2664</v>
       </c>
       <c r="B2664">
-        <v>28.52812104537268</v>
+        <v>28.52812104537267</v>
       </c>
     </row>
     <row r="2665" spans="1:2">
@@ -21663,7 +21663,7 @@
         <v>2665</v>
       </c>
       <c r="B2665">
-        <v>28.62656360725902</v>
+        <v>28.62656360725901</v>
       </c>
     </row>
     <row r="2666" spans="1:2">
@@ -21703,7 +21703,7 @@
         <v>2670</v>
       </c>
       <c r="B2670">
-        <v>34.16798011337161</v>
+        <v>34.1679801133716</v>
       </c>
     </row>
     <row r="2671" spans="1:2">
@@ -21831,7 +21831,7 @@
         <v>2686</v>
       </c>
       <c r="B2686">
-        <v>5.489455010957927</v>
+        <v>5.489455010957926</v>
       </c>
     </row>
     <row r="2687" spans="1:2">
@@ -21983,7 +21983,7 @@
         <v>2705</v>
       </c>
       <c r="B2705">
-        <v>18.87758481329324</v>
+        <v>18.87758481329323</v>
       </c>
     </row>
     <row r="2706" spans="1:2">
@@ -22255,7 +22255,7 @@
         <v>2739</v>
       </c>
       <c r="B2739">
-        <v>22.66755017815789</v>
+        <v>22.66755017815788</v>
       </c>
     </row>
     <row r="2740" spans="1:2">
@@ -22271,7 +22271,7 @@
         <v>2741</v>
       </c>
       <c r="B2741">
-        <v>27.3979805060868</v>
+        <v>27.39798050608679</v>
       </c>
     </row>
     <row r="2742" spans="1:2">
@@ -22295,7 +22295,7 @@
         <v>2744</v>
       </c>
       <c r="B2744">
-        <v>6.550782470366123</v>
+        <v>6.550782470366122</v>
       </c>
     </row>
     <row r="2745" spans="1:2">
@@ -22471,7 +22471,7 @@
         <v>2766</v>
       </c>
       <c r="B2766">
-        <v>30.15994058863905</v>
+        <v>30.15994058863904</v>
       </c>
     </row>
     <row r="2767" spans="1:2">
@@ -22647,7 +22647,7 @@
         <v>2788</v>
       </c>
       <c r="B2788">
-        <v>24.66034531974344</v>
+        <v>24.66034531974343</v>
       </c>
     </row>
     <row r="2789" spans="1:2">
@@ -22839,7 +22839,7 @@
         <v>2812</v>
       </c>
       <c r="B2812">
-        <v>16.90835258321606</v>
+        <v>16.90835258321605</v>
       </c>
     </row>
     <row r="2813" spans="1:2">
@@ -22879,7 +22879,7 @@
         <v>2817</v>
       </c>
       <c r="B2817">
-        <v>5.745716327163407</v>
+        <v>5.745716327163406</v>
       </c>
     </row>
     <row r="2818" spans="1:2">
@@ -22943,7 +22943,7 @@
         <v>2825</v>
       </c>
       <c r="B2825">
-        <v>0.6456061910670776</v>
+        <v>0.6456061910670775</v>
       </c>
     </row>
     <row r="2826" spans="1:2">
@@ -22967,7 +22967,7 @@
         <v>2828</v>
       </c>
       <c r="B2828">
-        <v>0.5686340134730619</v>
+        <v>0.5686340134730618</v>
       </c>
     </row>
     <row r="2829" spans="1:2">
@@ -23175,7 +23175,7 @@
         <v>2854</v>
       </c>
       <c r="B2854">
-        <v>0.8879114644115046</v>
+        <v>0.8879114644115045</v>
       </c>
     </row>
     <row r="2855" spans="1:2">
@@ -23183,7 +23183,7 @@
         <v>2855</v>
       </c>
       <c r="B2855">
-        <v>3.235474959717386</v>
+        <v>3.235474959717385</v>
       </c>
     </row>
     <row r="2856" spans="1:2">
@@ -23423,7 +23423,7 @@
         <v>2885</v>
       </c>
       <c r="B2885">
-        <v>22.42292378218726</v>
+        <v>22.42292378218725</v>
       </c>
     </row>
     <row r="2886" spans="1:2">
@@ -23439,7 +23439,7 @@
         <v>2887</v>
       </c>
       <c r="B2887">
-        <v>5.608500466862165</v>
+        <v>5.608500466862164</v>
       </c>
     </row>
     <row r="2888" spans="1:2">
@@ -23991,7 +23991,7 @@
         <v>2956</v>
       </c>
       <c r="B2956">
-        <v>30.17518028264944</v>
+        <v>30.17518028264943</v>
       </c>
     </row>
     <row r="2957" spans="1:2">
@@ -24023,7 +24023,7 @@
         <v>2960</v>
       </c>
       <c r="B2960">
-        <v>7.470615232308621</v>
+        <v>7.47061523230862</v>
       </c>
     </row>
     <row r="2961" spans="1:2">
@@ -24759,7 +24759,7 @@
         <v>3052</v>
       </c>
       <c r="B3052">
-        <v>0.4126703988286537</v>
+        <v>0.4126703988286536</v>
       </c>
     </row>
     <row r="3053" spans="1:2">
@@ -25351,7 +25351,7 @@
         <v>3126</v>
       </c>
       <c r="B3126">
-        <v>18.66619267310681</v>
+        <v>18.6661926731068</v>
       </c>
     </row>
     <row r="3127" spans="1:2">
@@ -25551,7 +25551,7 @@
         <v>3151</v>
       </c>
       <c r="B3151">
-        <v>0.2609873797749332</v>
+        <v>0.2609873797749331</v>
       </c>
     </row>
     <row r="3152" spans="1:2">
@@ -25911,7 +25911,7 @@
         <v>3196</v>
       </c>
       <c r="B3196">
-        <v>8.42494245550156</v>
+        <v>8.424942455501558</v>
       </c>
     </row>
     <row r="3197" spans="1:2">
@@ -25927,7 +25927,7 @@
         <v>3198</v>
       </c>
       <c r="B3198">
-        <v>16.56938661990035</v>
+        <v>16.56938661990034</v>
       </c>
     </row>
     <row r="3199" spans="1:2">
@@ -26055,7 +26055,7 @@
         <v>3214</v>
       </c>
       <c r="B3214">
-        <v>0.3780147485069496</v>
+        <v>0.3780147485069495</v>
       </c>
     </row>
     <row r="3215" spans="1:2">
@@ -26799,7 +26799,7 @@
         <v>3307</v>
       </c>
       <c r="B3307">
-        <v>0.2173104167411556</v>
+        <v>0.2173104167411555</v>
       </c>
     </row>
     <row r="3308" spans="1:2">
@@ -27447,7 +27447,7 @@
         <v>3388</v>
       </c>
       <c r="B3388">
-        <v>37.82140368132394</v>
+        <v>37.82140368132393</v>
       </c>
     </row>
     <row r="3389" spans="1:2">
@@ -27463,7 +27463,7 @@
         <v>3390</v>
       </c>
       <c r="B3390">
-        <v>41.14072626520233</v>
+        <v>41.14072626520232</v>
       </c>
     </row>
     <row r="3391" spans="1:2">
@@ -27591,7 +27591,7 @@
         <v>3406</v>
       </c>
       <c r="B3406">
-        <v>0.166013606702183</v>
+        <v>0.1660136067021829</v>
       </c>
     </row>
     <row r="3407" spans="1:2">
@@ -27647,7 +27647,7 @@
         <v>3413</v>
       </c>
       <c r="B3413">
-        <v>28.95026056946048</v>
+        <v>28.95026056946047</v>
       </c>
     </row>
     <row r="3414" spans="1:2">
@@ -29935,7 +29935,7 @@
         <v>3699</v>
       </c>
       <c r="B3699">
-        <v>3.98172174546077</v>
+        <v>3.981721745460769</v>
       </c>
     </row>
     <row r="3700" spans="1:2">
@@ -30911,7 +30911,7 @@
         <v>3821</v>
       </c>
       <c r="B3821">
-        <v>7.25916447791446</v>
+        <v>7.259164477914459</v>
       </c>
     </row>
     <row r="3822" spans="1:2">
@@ -45327,7 +45327,7 @@
         <v>5623</v>
       </c>
       <c r="B5623">
-        <v>0.1895237654235961</v>
+        <v>0.189523765423596</v>
       </c>
     </row>
     <row r="5624" spans="1:2">
@@ -46647,7 +46647,7 @@
         <v>5788</v>
       </c>
       <c r="B5788">
-        <v>0.3527754706574346</v>
+        <v>0.3527754706574345</v>
       </c>
     </row>
     <row r="5789" spans="1:2">
@@ -47615,7 +47615,7 @@
         <v>5909</v>
       </c>
       <c r="B5909">
-        <v>9.691361027764966</v>
+        <v>9.691361027764964</v>
       </c>
     </row>
     <row r="5910" spans="1:2">
@@ -47783,7 +47783,7 @@
         <v>5930</v>
       </c>
       <c r="B5930">
-        <v>7.130037378280272</v>
+        <v>7.130037378280271</v>
       </c>
     </row>
     <row r="5931" spans="1:2">
@@ -47823,7 +47823,7 @@
         <v>5935</v>
       </c>
       <c r="B5935">
-        <v>5.156848689181167</v>
+        <v>5.156848689181166</v>
       </c>
     </row>
     <row r="5936" spans="1:2">
@@ -49159,7 +49159,7 @@
         <v>6102</v>
       </c>
       <c r="B6102">
-        <v>0.638900725702506</v>
+        <v>0.6389007257025059</v>
       </c>
     </row>
     <row r="6103" spans="1:2">
@@ -50887,7 +50887,7 @@
         <v>6318</v>
       </c>
       <c r="B6318">
-        <v>6.759185285958205</v>
+        <v>6.759185285958204</v>
       </c>
     </row>
     <row r="6319" spans="1:2">
@@ -50903,7 +50903,7 @@
         <v>6320</v>
       </c>
       <c r="B6320">
-        <v>0.4643358922342623</v>
+        <v>0.4643358922342622</v>
       </c>
     </row>
     <row r="6321" spans="1:2">
@@ -51031,7 +51031,7 @@
         <v>6336</v>
       </c>
       <c r="B6336">
-        <v>6.98083491249778</v>
+        <v>6.980834912497779</v>
       </c>
     </row>
     <row r="6337" spans="1:2">
@@ -51055,7 +51055,7 @@
         <v>6339</v>
       </c>
       <c r="B6339">
-        <v>17.41627400032004</v>
+        <v>17.41627400032003</v>
       </c>
     </row>
     <row r="6340" spans="1:2">
@@ -51079,7 +51079,7 @@
         <v>6342</v>
       </c>
       <c r="B6342">
-        <v>36.68751183274319</v>
+        <v>36.68751183274318</v>
       </c>
     </row>
     <row r="6343" spans="1:2">
@@ -51423,7 +51423,7 @@
         <v>6385</v>
       </c>
       <c r="B6385">
-        <v>0.4510304670790372</v>
+        <v>0.4510304670790371</v>
       </c>
     </row>
     <row r="6386" spans="1:2">
@@ -51615,7 +51615,7 @@
         <v>6409</v>
       </c>
       <c r="B6409">
-        <v>14.33867640912952</v>
+        <v>14.33867640912951</v>
       </c>
     </row>
     <row r="6410" spans="1:2">
@@ -51695,7 +51695,7 @@
         <v>6419</v>
       </c>
       <c r="B6419">
-        <v>1.045961744851182</v>
+        <v>1.045961744851181</v>
       </c>
     </row>
     <row r="6420" spans="1:2">
@@ -51791,7 +51791,7 @@
         <v>6431</v>
       </c>
       <c r="B6431">
-        <v>0.06946574908078269</v>
+        <v>0.0694657490807826</v>
       </c>
     </row>
     <row r="6432" spans="1:2">
@@ -51815,7 +51815,7 @@
         <v>6434</v>
       </c>
       <c r="B6434">
-        <v>5.61286722533822</v>
+        <v>5.612867225338219</v>
       </c>
     </row>
     <row r="6435" spans="1:2">
@@ -52007,7 +52007,7 @@
         <v>6458</v>
       </c>
       <c r="B6458">
-        <v>6.611037875914895</v>
+        <v>6.611037875914894</v>
       </c>
     </row>
     <row r="6459" spans="1:2">
@@ -52015,7 +52015,7 @@
         <v>6459</v>
       </c>
       <c r="B6459">
-        <v>7.467098379844685</v>
+        <v>7.467098379844684</v>
       </c>
     </row>
     <row r="6460" spans="1:2">
@@ -52391,7 +52391,7 @@
         <v>6506</v>
       </c>
       <c r="B6506">
-        <v>0.2287677359265822</v>
+        <v>0.2287677359265821</v>
       </c>
     </row>
     <row r="6507" spans="1:2">
@@ -52399,7 +52399,7 @@
         <v>6507</v>
       </c>
       <c r="B6507">
-        <v>0.6044326408455452</v>
+        <v>0.604432640845545</v>
       </c>
     </row>
     <row r="6508" spans="1:2">
@@ -53175,7 +53175,7 @@
         <v>6604</v>
       </c>
       <c r="B6604">
-        <v>0.5406222835978105</v>
+        <v>0.5406222835978104</v>
       </c>
     </row>
     <row r="6605" spans="1:2">
@@ -53367,7 +53367,7 @@
         <v>6628</v>
       </c>
       <c r="B6628">
-        <v>0.1238869894629239</v>
+        <v>0.1238869894629238</v>
       </c>
     </row>
     <row r="6629" spans="1:2">
@@ -53583,7 +53583,7 @@
         <v>6655</v>
       </c>
       <c r="B6655">
-        <v>6.795057181090354</v>
+        <v>6.795057181090353</v>
       </c>
     </row>
     <row r="6656" spans="1:2">
@@ -53895,7 +53895,7 @@
         <v>6694</v>
       </c>
       <c r="B6694">
-        <v>0.5553197961866769</v>
+        <v>0.5553197961866768</v>
       </c>
     </row>
     <row r="6695" spans="1:2">
@@ -53903,7 +53903,7 @@
         <v>6695</v>
       </c>
       <c r="B6695">
-        <v>7.194454392578035</v>
+        <v>7.194454392578034</v>
       </c>
     </row>
     <row r="6696" spans="1:2">
@@ -53967,7 +53967,7 @@
         <v>6703</v>
       </c>
       <c r="B6703">
-        <v>30.65288607566743</v>
+        <v>30.65288607566742</v>
       </c>
     </row>
     <row r="6704" spans="1:2">
@@ -53983,7 +53983,7 @@
         <v>6705</v>
       </c>
       <c r="B6705">
-        <v>5.152188859666451</v>
+        <v>5.15218885966645</v>
       </c>
     </row>
     <row r="6706" spans="1:2">
@@ -53999,7 +53999,7 @@
         <v>6707</v>
       </c>
       <c r="B6707">
-        <v>2.258203204907651</v>
+        <v>2.25820320490765</v>
       </c>
     </row>
     <row r="6708" spans="1:2">
@@ -54215,7 +54215,7 @@
         <v>6734</v>
       </c>
       <c r="B6734">
-        <v>1.079313229050843</v>
+        <v>1.079313229050842</v>
       </c>
     </row>
     <row r="6735" spans="1:2">
@@ -54503,7 +54503,7 @@
         <v>6770</v>
       </c>
       <c r="B6770">
-        <v>27.74052193607418</v>
+        <v>27.74052193607417</v>
       </c>
     </row>
     <row r="6771" spans="1:2">
@@ -54535,7 +54535,7 @@
         <v>6774</v>
       </c>
       <c r="B6774">
-        <v>46.98251127883893</v>
+        <v>46.98251127883892</v>
       </c>
     </row>
     <row r="6775" spans="1:2">
@@ -54887,7 +54887,7 @@
         <v>6818</v>
       </c>
       <c r="B6818">
-        <v>2.495725558901125</v>
+        <v>2.495725558901124</v>
       </c>
     </row>
     <row r="6819" spans="1:2">
@@ -54895,7 +54895,7 @@
         <v>6819</v>
       </c>
       <c r="B6819">
-        <v>4.397413706698022</v>
+        <v>4.397413706698021</v>
       </c>
     </row>
     <row r="6820" spans="1:2">
@@ -55463,7 +55463,7 @@
         <v>6890</v>
       </c>
       <c r="B6890">
-        <v>0.8031377357683239</v>
+        <v>0.8031377357683238</v>
       </c>
     </row>
     <row r="6891" spans="1:2">
@@ -55471,7 +55471,7 @@
         <v>6891</v>
       </c>
       <c r="B6891">
-        <v>2.818783626238299</v>
+        <v>2.818783626238298</v>
       </c>
     </row>
     <row r="6892" spans="1:2">
@@ -55615,7 +55615,7 @@
         <v>6909</v>
       </c>
       <c r="B6909">
-        <v>0.0964939325502866</v>
+        <v>0.0964939325502865</v>
       </c>
     </row>
     <row r="6910" spans="1:2">
@@ -55655,7 +55655,7 @@
         <v>6914</v>
       </c>
       <c r="B6914">
-        <v>9.092323824741175</v>
+        <v>9.092323824741174</v>
       </c>
     </row>
     <row r="6915" spans="1:2">
@@ -55703,7 +55703,7 @@
         <v>6920</v>
       </c>
       <c r="B6920">
-        <v>2.275813843620811</v>
+        <v>2.27581384362081</v>
       </c>
     </row>
     <row r="6921" spans="1:2">
@@ -55831,7 +55831,7 @@
         <v>6936</v>
       </c>
       <c r="B6936">
-        <v>9.10495518650748</v>
+        <v>9.104955186507478</v>
       </c>
     </row>
     <row r="6937" spans="1:2">
@@ -55855,7 +55855,7 @@
         <v>6939</v>
       </c>
       <c r="B6939">
-        <v>26.89879260593493</v>
+        <v>26.89879260593492</v>
       </c>
     </row>
     <row r="6940" spans="1:2">
@@ -55935,7 +55935,7 @@
         <v>6949</v>
       </c>
       <c r="B6949">
-        <v>0.3970438510472308</v>
+        <v>0.3970438510472307</v>
       </c>
     </row>
     <row r="6950" spans="1:2">
@@ -56039,7 +56039,7 @@
         <v>6962</v>
       </c>
       <c r="B6962">
-        <v>23.90861810557709</v>
+        <v>23.90861810557708</v>
       </c>
     </row>
     <row r="6963" spans="1:2">
@@ -56071,7 +56071,7 @@
         <v>6966</v>
       </c>
       <c r="B6966">
-        <v>43.32410550322936</v>
+        <v>43.32410550322935</v>
       </c>
     </row>
     <row r="6967" spans="1:2">
@@ -56175,7 +56175,7 @@
         <v>6979</v>
       </c>
       <c r="B6979">
-        <v>2.735322855848321</v>
+        <v>2.73532285584832</v>
       </c>
     </row>
     <row r="6980" spans="1:2">
@@ -56407,7 +56407,7 @@
         <v>7008</v>
       </c>
       <c r="B7008">
-        <v>15.61634890927752</v>
+        <v>15.61634890927751</v>
       </c>
     </row>
     <row r="7009" spans="1:2">
@@ -56471,7 +56471,7 @@
         <v>7016</v>
       </c>
       <c r="B7016">
-        <v>8.96044185734357</v>
+        <v>8.960441857343568</v>
       </c>
     </row>
     <row r="7017" spans="1:2">
@@ -56487,7 +56487,7 @@
         <v>7018</v>
       </c>
       <c r="B7018">
-        <v>0.3884949688494793</v>
+        <v>0.3884949688494792</v>
       </c>
     </row>
     <row r="7019" spans="1:2">
@@ -57623,7 +57623,7 @@
         <v>7160</v>
       </c>
       <c r="B7160">
-        <v>5.726696016754286</v>
+        <v>5.726696016754285</v>
       </c>
     </row>
     <row r="7161" spans="1:2">
@@ -57631,7 +57631,7 @@
         <v>7161</v>
       </c>
       <c r="B7161">
-        <v>3.328261250557568</v>
+        <v>3.328261250557567</v>
       </c>
     </row>
     <row r="7162" spans="1:2">
@@ -57751,7 +57751,7 @@
         <v>7176</v>
       </c>
       <c r="B7176">
-        <v>23.64672982542931</v>
+        <v>23.6467298254293</v>
       </c>
     </row>
     <row r="7177" spans="1:2">
@@ -57799,7 +57799,7 @@
         <v>7182</v>
       </c>
       <c r="B7182">
-        <v>43.88738803953646</v>
+        <v>43.88738803953645</v>
       </c>
     </row>
     <row r="7183" spans="1:2">
@@ -57935,7 +57935,7 @@
         <v>7199</v>
       </c>
       <c r="B7199">
-        <v>26.66357379030533</v>
+        <v>26.66357379030532</v>
       </c>
     </row>
     <row r="7200" spans="1:2">
@@ -57943,7 +57943,7 @@
         <v>7200</v>
       </c>
       <c r="B7200">
-        <v>28.30890390845399</v>
+        <v>28.30890390845398</v>
       </c>
     </row>
     <row r="7201" spans="1:2">
@@ -58063,7 +58063,7 @@
         <v>7215</v>
       </c>
       <c r="B7215">
-        <v>4.466842235756895</v>
+        <v>4.466842235756894</v>
       </c>
     </row>
     <row r="7216" spans="1:2">
@@ -58159,7 +58159,7 @@
         <v>7227</v>
       </c>
       <c r="B7227">
-        <v>53.92770875303549</v>
+        <v>53.92770875303548</v>
       </c>
     </row>
     <row r="7228" spans="1:2">
@@ -58287,7 +58287,7 @@
         <v>7243</v>
       </c>
       <c r="B7243">
-        <v>4.851761737934706</v>
+        <v>4.851761737934705</v>
       </c>
     </row>
     <row r="7244" spans="1:2">
@@ -58295,7 +58295,7 @@
         <v>7244</v>
       </c>
       <c r="B7244">
-        <v>3.903794156280718</v>
+        <v>3.903794156280717</v>
       </c>
     </row>
     <row r="7245" spans="1:2">
@@ -58319,7 +58319,7 @@
         <v>7247</v>
       </c>
       <c r="B7247">
-        <v>14.83710232458087</v>
+        <v>14.83710232458086</v>
       </c>
     </row>
     <row r="7248" spans="1:2">
@@ -58423,7 +58423,7 @@
         <v>7260</v>
       </c>
       <c r="B7260">
-        <v>0.8175744151327817</v>
+        <v>0.8175744151327816</v>
       </c>
     </row>
     <row r="7261" spans="1:2">
@@ -58655,7 +58655,7 @@
         <v>7289</v>
       </c>
       <c r="B7289">
-        <v>0.2558445691885039</v>
+        <v>0.2558445691885038</v>
       </c>
     </row>
     <row r="7290" spans="1:2">
@@ -58735,7 +58735,7 @@
         <v>7299</v>
       </c>
       <c r="B7299">
-        <v>34.81742553504515</v>
+        <v>34.81742553504514</v>
       </c>
     </row>
     <row r="7300" spans="1:2">
@@ -58911,7 +58911,7 @@
         <v>7321</v>
       </c>
       <c r="B7321">
-        <v>25.55664447728143</v>
+        <v>25.55664447728142</v>
       </c>
     </row>
     <row r="7322" spans="1:2">
@@ -58951,7 +58951,7 @@
         <v>7326</v>
       </c>
       <c r="B7326">
-        <v>58.96149691308276</v>
+        <v>58.96149691308275</v>
       </c>
     </row>
     <row r="7327" spans="1:2">
@@ -59007,7 +59007,7 @@
         <v>7333</v>
       </c>
       <c r="B7333">
-        <v>0.6413625224272613</v>
+        <v>0.6413625224272612</v>
       </c>
     </row>
     <row r="7334" spans="1:2">
@@ -59535,7 +59535,7 @@
         <v>7399</v>
       </c>
       <c r="B7399">
-        <v>41.99414912978417</v>
+        <v>41.99414912978416</v>
       </c>
     </row>
     <row r="7400" spans="1:2">
@@ -59615,7 +59615,7 @@
         <v>7409</v>
       </c>
       <c r="B7409">
-        <v>8.326177515472686</v>
+        <v>8.326177515472684</v>
       </c>
     </row>
     <row r="7410" spans="1:2">
@@ -59663,7 +59663,7 @@
         <v>7415</v>
       </c>
       <c r="B7415">
-        <v>17.57807852076497</v>
+        <v>17.57807852076496</v>
       </c>
     </row>
     <row r="7416" spans="1:2">
@@ -59831,7 +59831,7 @@
         <v>7436</v>
       </c>
       <c r="B7436">
-        <v>16.86606243233723</v>
+        <v>16.86606243233722</v>
       </c>
     </row>
     <row r="7437" spans="1:2">
@@ -59887,7 +59887,7 @@
         <v>7443</v>
       </c>
       <c r="B7443">
-        <v>52.21060553751867</v>
+        <v>52.21060553751866</v>
       </c>
     </row>
     <row r="7444" spans="1:2">
@@ -59927,7 +59927,7 @@
         <v>7448</v>
       </c>
       <c r="B7448">
-        <v>52.60273458724755</v>
+        <v>52.60273458724754</v>
       </c>
     </row>
     <row r="7449" spans="1:2">
@@ -59967,7 +59967,7 @@
         <v>7453</v>
       </c>
       <c r="B7453">
-        <v>4.37604882797961</v>
+        <v>4.376048827979609</v>
       </c>
     </row>
     <row r="7454" spans="1:2">
@@ -59999,7 +59999,7 @@
         <v>7457</v>
       </c>
       <c r="B7457">
-        <v>5.679863264776203</v>
+        <v>5.679863264776202</v>
       </c>
     </row>
     <row r="7458" spans="1:2">
@@ -60015,7 +60015,7 @@
         <v>7459</v>
       </c>
       <c r="B7459">
-        <v>7.357753575320137</v>
+        <v>7.357753575320136</v>
       </c>
     </row>
     <row r="7460" spans="1:2">
@@ -60039,7 +60039,7 @@
         <v>7462</v>
       </c>
       <c r="B7462">
-        <v>7.390196539299948</v>
+        <v>7.390196539299947</v>
       </c>
     </row>
     <row r="7463" spans="1:2">
@@ -60047,7 +60047,7 @@
         <v>7463</v>
       </c>
       <c r="B7463">
-        <v>7.634969470789903</v>
+        <v>7.634969470789902</v>
       </c>
     </row>
     <row r="7464" spans="1:2">
@@ -60087,7 +60087,7 @@
         <v>7468</v>
       </c>
       <c r="B7468">
-        <v>23.66349348884074</v>
+        <v>23.66349348884073</v>
       </c>
     </row>
     <row r="7469" spans="1:2">
@@ -60111,7 +60111,7 @@
         <v>7471</v>
       </c>
       <c r="B7471">
-        <v>45.99398266543421</v>
+        <v>45.9939826654342</v>
       </c>
     </row>
     <row r="7472" spans="1:2">
@@ -60135,7 +60135,7 @@
         <v>7474</v>
       </c>
       <c r="B7474">
-        <v>15.64920217271146</v>
+        <v>15.64920217271145</v>
       </c>
     </row>
     <row r="7475" spans="1:2">
@@ -60223,7 +60223,7 @@
         <v>7485</v>
       </c>
       <c r="B7485">
-        <v>0.3263961464675269</v>
+        <v>0.3263961464675268</v>
       </c>
     </row>
     <row r="7486" spans="1:2">
@@ -60335,7 +60335,7 @@
         <v>7499</v>
       </c>
       <c r="B7499">
-        <v>3.513628682510869</v>
+        <v>3.513628682510868</v>
       </c>
     </row>
     <row r="7500" spans="1:2">
@@ -60391,7 +60391,7 @@
         <v>7506</v>
       </c>
       <c r="B7506">
-        <v>4.586942747400314</v>
+        <v>4.586942747400313</v>
       </c>
     </row>
     <row r="7507" spans="1:2">
@@ -60527,7 +60527,7 @@
         <v>7523</v>
       </c>
       <c r="B7523">
-        <v>0.8889577280195257</v>
+        <v>0.8889577280195256</v>
       </c>
     </row>
     <row r="7524" spans="1:2">
@@ -60567,7 +60567,7 @@
         <v>7528</v>
       </c>
       <c r="B7528">
-        <v>0.701207628521908</v>
+        <v>0.7012076285219079</v>
       </c>
     </row>
     <row r="7529" spans="1:2">
@@ -60639,7 +60639,7 @@
         <v>7537</v>
       </c>
       <c r="B7537">
-        <v>20.86862152864682</v>
+        <v>20.86862152864681</v>
       </c>
     </row>
     <row r="7538" spans="1:2">
@@ -60799,7 +60799,7 @@
         <v>7557</v>
       </c>
       <c r="B7557">
-        <v>6.314977512659204</v>
+        <v>6.314977512659203</v>
       </c>
     </row>
     <row r="7558" spans="1:2">
@@ -60823,7 +60823,7 @@
         <v>7560</v>
       </c>
       <c r="B7560">
-        <v>19.30124830678208</v>
+        <v>19.30124830678207</v>
       </c>
     </row>
     <row r="7561" spans="1:2">
@@ -61031,7 +61031,7 @@
         <v>7586</v>
       </c>
       <c r="B7586">
-        <v>38.73314768259938</v>
+        <v>38.73314768259937</v>
       </c>
     </row>
     <row r="7587" spans="1:2">
@@ -61111,7 +61111,7 @@
         <v>7596</v>
       </c>
       <c r="B7596">
-        <v>7.927219910542997</v>
+        <v>7.927219910542996</v>
       </c>
     </row>
     <row r="7597" spans="1:2">
@@ -61255,7 +61255,7 @@
         <v>7614</v>
       </c>
       <c r="B7614">
-        <v>32.78468481089006</v>
+        <v>32.78468481089005</v>
       </c>
     </row>
     <row r="7615" spans="1:2">
@@ -61391,7 +61391,7 @@
         <v>7631</v>
       </c>
       <c r="B7631">
-        <v>27.97011378776148</v>
+        <v>27.97011378776147</v>
       </c>
     </row>
     <row r="7632" spans="1:2">
@@ -61415,7 +61415,7 @@
         <v>7634</v>
       </c>
       <c r="B7634">
-        <v>47.32657667822735</v>
+        <v>47.32657667822734</v>
       </c>
     </row>
     <row r="7635" spans="1:2">
@@ -61607,7 +61607,7 @@
         <v>7658</v>
       </c>
       <c r="B7658">
-        <v>60.14902076173853</v>
+        <v>60.14902076173852</v>
       </c>
     </row>
     <row r="7659" spans="1:2">
@@ -61639,7 +61639,7 @@
         <v>7662</v>
       </c>
       <c r="B7662">
-        <v>85.02283902604289</v>
+        <v>85.02283902604287</v>
       </c>
     </row>
     <row r="7663" spans="1:2">
@@ -61759,7 +61759,7 @@
         <v>7677</v>
       </c>
       <c r="B7677">
-        <v>9.361626802167086</v>
+        <v>9.361626802167084</v>
       </c>
     </row>
     <row r="7678" spans="1:2">
@@ -61823,7 +61823,7 @@
         <v>7685</v>
       </c>
       <c r="B7685">
-        <v>40.66214125906836</v>
+        <v>40.66214125906835</v>
       </c>
     </row>
     <row r="7686" spans="1:2">
@@ -61879,7 +61879,7 @@
         <v>7692</v>
       </c>
       <c r="B7692">
-        <v>6.120935177961528</v>
+        <v>6.120935177961527</v>
       </c>
     </row>
     <row r="7693" spans="1:2">
@@ -61943,7 +61943,7 @@
         <v>7700</v>
       </c>
       <c r="B7700">
-        <v>19.33990437678151</v>
+        <v>19.3399043767815</v>
       </c>
     </row>
     <row r="7701" spans="1:2">
@@ -61991,7 +61991,7 @@
         <v>7706</v>
       </c>
       <c r="B7706">
-        <v>53.05611548405665</v>
+        <v>53.05611548405664</v>
       </c>
     </row>
     <row r="7707" spans="1:2">
@@ -61999,7 +61999,7 @@
         <v>7707</v>
       </c>
       <c r="B7707">
-        <v>58.67164965584669</v>
+        <v>58.67164965584668</v>
       </c>
     </row>
     <row r="7708" spans="1:2">
@@ -62007,7 +62007,7 @@
         <v>7708</v>
       </c>
       <c r="B7708">
-        <v>61.70024576937303</v>
+        <v>61.70024576937302</v>
       </c>
     </row>
     <row r="7709" spans="1:2">
@@ -62183,7 +62183,7 @@
         <v>7730</v>
       </c>
       <c r="B7730">
-        <v>55.15333183671724</v>
+        <v>55.15333183671723</v>
       </c>
     </row>
     <row r="7731" spans="1:2">
@@ -62255,7 +62255,7 @@
         <v>7739</v>
       </c>
       <c r="B7739">
-        <v>53.45351981248143</v>
+        <v>53.45351981248142</v>
       </c>
     </row>
     <row r="7740" spans="1:2">
@@ -62311,7 +62311,7 @@
         <v>7746</v>
       </c>
       <c r="B7746">
-        <v>63.13248393531102</v>
+        <v>63.13248393531101</v>
       </c>
     </row>
     <row r="7747" spans="1:2">
@@ -62351,7 +62351,7 @@
         <v>7751</v>
       </c>
       <c r="B7751">
-        <v>60.78557105771097</v>
+        <v>60.78557105771096</v>
       </c>
     </row>
     <row r="7752" spans="1:2">
@@ -62431,7 +62431,7 @@
         <v>7761</v>
       </c>
       <c r="B7761">
-        <v>64.77925010154912</v>
+        <v>64.77925010154911</v>
       </c>
     </row>
     <row r="7762" spans="1:2">
@@ -62527,7 +62527,7 @@
         <v>7773</v>
       </c>
       <c r="B7773">
-        <v>35.04191795065974</v>
+        <v>35.04191795065973</v>
       </c>
     </row>
     <row r="7774" spans="1:2">
@@ -62575,7 +62575,7 @@
         <v>7779</v>
       </c>
       <c r="B7779">
-        <v>76.78607748446578</v>
+        <v>76.78607748446576</v>
       </c>
     </row>
     <row r="7780" spans="1:2">
@@ -62591,7 +62591,7 @@
         <v>7781</v>
       </c>
       <c r="B7781">
-        <v>79.23204837313337</v>
+        <v>79.23204837313335</v>
       </c>
     </row>
     <row r="7782" spans="1:2">
@@ -62679,7 +62679,7 @@
         <v>7792</v>
       </c>
       <c r="B7792">
-        <v>58.67633879246527</v>
+        <v>58.67633879246526</v>
       </c>
     </row>
     <row r="7793" spans="1:2">
@@ -62751,7 +62751,7 @@
         <v>7801</v>
       </c>
       <c r="B7801">
-        <v>83.61199504592717</v>
+        <v>83.61199504592716</v>
       </c>
     </row>
     <row r="7802" spans="1:2">
@@ -62767,7 +62767,7 @@
         <v>7803</v>
       </c>
       <c r="B7803">
-        <v>87.75162346701867</v>
+        <v>87.75162346701866</v>
       </c>
     </row>
     <row r="7804" spans="1:2">
@@ -62823,7 +62823,7 @@
         <v>7810</v>
       </c>
       <c r="B7810">
-        <v>41.51527105261153</v>
+        <v>41.51527105261152</v>
       </c>
     </row>
     <row r="7811" spans="1:2">
@@ -62887,7 +62887,7 @@
         <v>7818</v>
       </c>
       <c r="B7818">
-        <v>62.14102461151969</v>
+        <v>62.14102461151968</v>
       </c>
     </row>
     <row r="7819" spans="1:2">
@@ -62919,7 +62919,7 @@
         <v>7822</v>
       </c>
       <c r="B7822">
-        <v>64.55534382801186</v>
+        <v>64.55534382801184</v>
       </c>
     </row>
     <row r="7823" spans="1:2">
@@ -62943,7 +62943,7 @@
         <v>7825</v>
       </c>
       <c r="B7825">
-        <v>74.01684924015473</v>
+        <v>74.01684924015471</v>
       </c>
     </row>
     <row r="7826" spans="1:2">
@@ -63119,7 +63119,7 @@
         <v>7847</v>
       </c>
       <c r="B7847">
-        <v>64.81764240761376</v>
+        <v>64.81764240761375</v>
       </c>
     </row>
     <row r="7848" spans="1:2">
@@ -63207,7 +63207,7 @@
         <v>7858</v>
       </c>
       <c r="B7858">
-        <v>46.44238135458607</v>
+        <v>46.44238135458606</v>
       </c>
     </row>
     <row r="7859" spans="1:2">
@@ -63223,7 +63223,7 @@
         <v>7860</v>
       </c>
       <c r="B7860">
-        <v>36.83785727557646</v>
+        <v>36.83785727557645</v>
       </c>
     </row>
     <row r="7861" spans="1:2">
@@ -63263,7 +63263,7 @@
         <v>7865</v>
       </c>
       <c r="B7865">
-        <v>39.59712110457303</v>
+        <v>39.59712110457302</v>
       </c>
     </row>
     <row r="7866" spans="1:2">
@@ -63327,7 +63327,7 @@
         <v>7873</v>
       </c>
       <c r="B7873">
-        <v>70.65415214255445</v>
+        <v>70.65415214255444</v>
       </c>
     </row>
     <row r="7874" spans="1:2">
@@ -63335,7 +63335,7 @@
         <v>7874</v>
       </c>
       <c r="B7874">
-        <v>69.78519651292356</v>
+        <v>69.78519651292355</v>
       </c>
     </row>
     <row r="7875" spans="1:2">
@@ -63359,7 +63359,7 @@
         <v>7877</v>
       </c>
       <c r="B7877">
-        <v>76.47542218348475</v>
+        <v>76.47542218348474</v>
       </c>
     </row>
     <row r="7878" spans="1:2">
@@ -63367,7 +63367,7 @@
         <v>7878</v>
       </c>
       <c r="B7878">
-        <v>76.28727057666417</v>
+        <v>76.28727057666416</v>
       </c>
     </row>
     <row r="7879" spans="1:2">
@@ -63383,7 +63383,7 @@
         <v>7880</v>
       </c>
       <c r="B7880">
-        <v>76.54693151691812</v>
+        <v>76.54693151691811</v>
       </c>
     </row>
     <row r="7881" spans="1:2">
@@ -63423,7 +63423,7 @@
         <v>7885</v>
       </c>
       <c r="B7885">
-        <v>58.35806364447905</v>
+        <v>58.35806364447904</v>
       </c>
     </row>
     <row r="7886" spans="1:2">
@@ -63511,7 +63511,7 @@
         <v>7896</v>
       </c>
       <c r="B7896">
-        <v>41.56890305268656</v>
+        <v>41.56890305268655</v>
       </c>
     </row>
     <row r="7897" spans="1:2">
@@ -63543,7 +63543,7 @@
         <v>7900</v>
       </c>
       <c r="B7900">
-        <v>36.98322051075249</v>
+        <v>36.98322051075248</v>
       </c>
     </row>
     <row r="7901" spans="1:2">
@@ -63751,7 +63751,7 @@
         <v>7926</v>
       </c>
       <c r="B7926">
-        <v>42.51903936002664</v>
+        <v>42.51903936002663</v>
       </c>
     </row>
     <row r="7927" spans="1:2">
@@ -63783,7 +63783,7 @@
         <v>7930</v>
       </c>
       <c r="B7930">
-        <v>12.25634806523293</v>
+        <v>12.25634806523292</v>
       </c>
     </row>
     <row r="7931" spans="1:2">
@@ -63791,7 +63791,7 @@
         <v>7931</v>
       </c>
       <c r="B7931">
-        <v>7.971268487653797</v>
+        <v>7.971268487653796</v>
       </c>
     </row>
     <row r="7932" spans="1:2">
@@ -63807,7 +63807,7 @@
         <v>7933</v>
       </c>
       <c r="B7933">
-        <v>5.524477000077957</v>
+        <v>5.524477000077956</v>
       </c>
     </row>
     <row r="7934" spans="1:2">
@@ -63823,7 +63823,7 @@
         <v>7935</v>
       </c>
       <c r="B7935">
-        <v>4.128257264791443</v>
+        <v>4.128257264791442</v>
       </c>
     </row>
     <row r="7936" spans="1:2">
@@ -64111,7 +64111,7 @@
         <v>7971</v>
       </c>
       <c r="B7971">
-        <v>55.28521380411484</v>
+        <v>55.28521380411483</v>
       </c>
     </row>
     <row r="7972" spans="1:2">
@@ -64135,7 +64135,7 @@
         <v>7974</v>
       </c>
       <c r="B7974">
-        <v>75.82568369077255</v>
+        <v>75.82568369077254</v>
       </c>
     </row>
     <row r="7975" spans="1:2">
@@ -64263,7 +64263,7 @@
         <v>7990</v>
       </c>
       <c r="B7990">
-        <v>25.74066378245689</v>
+        <v>25.74066378245688</v>
       </c>
     </row>
     <row r="7991" spans="1:2">
@@ -64287,7 +64287,7 @@
         <v>7993</v>
       </c>
       <c r="B7993">
-        <v>48.52934022089351</v>
+        <v>48.5293402208935</v>
       </c>
     </row>
     <row r="7994" spans="1:2">
@@ -64319,7 +64319,7 @@
         <v>7997</v>
       </c>
       <c r="B7997">
-        <v>55.26528497348587</v>
+        <v>55.26528497348586</v>
       </c>
     </row>
     <row r="7998" spans="1:2">
@@ -64367,7 +64367,7 @@
         <v>8003</v>
       </c>
       <c r="B8003">
-        <v>22.79828916850472</v>
+        <v>22.79828916850471</v>
       </c>
     </row>
     <row r="8004" spans="1:2">
@@ -64471,7 +64471,7 @@
         <v>8016</v>
       </c>
       <c r="B8016">
-        <v>31.86414867845477</v>
+        <v>31.86414867845476</v>
       </c>
     </row>
     <row r="8017" spans="1:2">
@@ -64879,7 +64879,7 @@
         <v>8067</v>
       </c>
       <c r="B8067">
-        <v>31.67687628475017</v>
+        <v>31.67687628475016</v>
       </c>
     </row>
     <row r="8068" spans="1:2">
@@ -64911,7 +64911,7 @@
         <v>8071</v>
       </c>
       <c r="B8071">
-        <v>54.66126556280484</v>
+        <v>54.66126556280483</v>
       </c>
     </row>
     <row r="8072" spans="1:2">
@@ -65327,7 +65327,7 @@
         <v>8123</v>
       </c>
       <c r="B8123">
-        <v>0.4205598711894171</v>
+        <v>0.420559871189417</v>
       </c>
     </row>
     <row r="8124" spans="1:2">
@@ -65847,7 +65847,7 @@
         <v>8188</v>
       </c>
       <c r="B8188">
-        <v>7.383074913060477</v>
+        <v>7.383074913060476</v>
       </c>
     </row>
     <row r="8189" spans="1:2">
@@ -65903,7 +65903,7 @@
         <v>8195</v>
       </c>
       <c r="B8195">
-        <v>10.51776274258223</v>
+        <v>10.51776274258222</v>
       </c>
     </row>
     <row r="8196" spans="1:2">
@@ -65919,7 +65919,7 @@
         <v>8197</v>
       </c>
       <c r="B8197">
-        <v>15.68141067986034</v>
+        <v>15.68141067986033</v>
       </c>
     </row>
     <row r="8198" spans="1:2">
@@ -65991,7 +65991,7 @@
         <v>8206</v>
       </c>
       <c r="B8206">
-        <v>5.829944943674677</v>
+        <v>5.829944943674676</v>
       </c>
     </row>
     <row r="8207" spans="1:2">
@@ -66071,7 +66071,7 @@
         <v>8216</v>
       </c>
       <c r="B8216">
-        <v>33.51325941300216</v>
+        <v>33.51325941300215</v>
       </c>
     </row>
     <row r="8217" spans="1:2">
@@ -66183,7 +66183,7 @@
         <v>8230</v>
       </c>
       <c r="B8230">
-        <v>34.92732717454315</v>
+        <v>34.92732717454314</v>
       </c>
     </row>
     <row r="8231" spans="1:2">
@@ -66231,7 +66231,7 @@
         <v>8236</v>
       </c>
       <c r="B8236">
-        <v>61.66214653434705</v>
+        <v>61.66214653434704</v>
       </c>
     </row>
     <row r="8237" spans="1:2">
@@ -66239,7 +66239,7 @@
         <v>8237</v>
       </c>
       <c r="B8237">
-        <v>63.73064192521883</v>
+        <v>63.73064192521882</v>
       </c>
     </row>
     <row r="8238" spans="1:2">
@@ -66319,7 +66319,7 @@
         <v>8247</v>
       </c>
       <c r="B8247">
-        <v>11.32036708906019</v>
+        <v>11.32036708906018</v>
       </c>
     </row>
     <row r="8248" spans="1:2">
@@ -66343,7 +66343,7 @@
         <v>8250</v>
       </c>
       <c r="B8250">
-        <v>22.14031537960613</v>
+        <v>22.14031537960612</v>
       </c>
     </row>
     <row r="8251" spans="1:2">
@@ -66423,7 +66423,7 @@
         <v>8260</v>
       </c>
       <c r="B8260">
-        <v>37.97673133181445</v>
+        <v>37.97673133181444</v>
       </c>
     </row>
     <row r="8261" spans="1:2">
@@ -66463,7 +66463,7 @@
         <v>8265</v>
       </c>
       <c r="B8265">
-        <v>33.55399628737609</v>
+        <v>33.55399628737608</v>
       </c>
     </row>
     <row r="8266" spans="1:2">
@@ -66559,7 +66559,7 @@
         <v>8277</v>
       </c>
       <c r="B8277">
-        <v>22.72845033999172</v>
+        <v>22.72845033999171</v>
       </c>
     </row>
     <row r="8278" spans="1:2">
@@ -66599,7 +66599,7 @@
         <v>8282</v>
       </c>
       <c r="B8282">
-        <v>55.11757717000055</v>
+        <v>55.11757717000054</v>
       </c>
     </row>
     <row r="8283" spans="1:2">
@@ -66615,7 +66615,7 @@
         <v>8284</v>
       </c>
       <c r="B8284">
-        <v>64.42551335788488</v>
+        <v>64.42551335788487</v>
       </c>
     </row>
     <row r="8285" spans="1:2">
@@ -66647,7 +66647,7 @@
         <v>8288</v>
       </c>
       <c r="B8288">
-        <v>76.5038500742349</v>
+        <v>76.50385007423489</v>
       </c>
     </row>
     <row r="8289" spans="1:2">
@@ -66807,7 +66807,7 @@
         <v>8308</v>
       </c>
       <c r="B8308">
-        <v>52.22584523152906</v>
+        <v>52.22584523152905</v>
       </c>
     </row>
     <row r="8309" spans="1:2">
@@ -66815,7 +66815,7 @@
         <v>8309</v>
       </c>
       <c r="B8309">
-        <v>52.62559412826313</v>
+        <v>52.62559412826312</v>
       </c>
     </row>
     <row r="8310" spans="1:2">
@@ -66855,7 +66855,7 @@
         <v>8314</v>
       </c>
       <c r="B8314">
-        <v>56.82940510682147</v>
+        <v>56.82940510682146</v>
       </c>
     </row>
     <row r="8315" spans="1:2">
@@ -66863,7 +66863,7 @@
         <v>8315</v>
       </c>
       <c r="B8315">
-        <v>49.73913746848754</v>
+        <v>49.73913746848753</v>
       </c>
     </row>
     <row r="8316" spans="1:2">
@@ -66887,7 +66887,7 @@
         <v>8318</v>
       </c>
       <c r="B8318">
-        <v>49.85871045226137</v>
+        <v>49.85871045226136</v>
       </c>
     </row>
     <row r="8319" spans="1:2">
@@ -66951,7 +66951,7 @@
         <v>8326</v>
       </c>
       <c r="B8326">
-        <v>28.71316609918345</v>
+        <v>28.71316609918344</v>
       </c>
     </row>
     <row r="8327" spans="1:2">
@@ -67015,7 +67015,7 @@
         <v>8334</v>
       </c>
       <c r="B8334">
-        <v>67.74454287072462</v>
+        <v>67.7445428707246</v>
       </c>
     </row>
     <row r="8335" spans="1:2">
@@ -67023,7 +67023,7 @@
         <v>8335</v>
       </c>
       <c r="B8335">
-        <v>75.54081864119372</v>
+        <v>75.54081864119371</v>
       </c>
     </row>
     <row r="8336" spans="1:2">
@@ -67087,7 +67087,7 @@
         <v>8343</v>
       </c>
       <c r="B8343">
-        <v>16.53374918159913</v>
+        <v>16.53374918159912</v>
       </c>
     </row>
     <row r="8344" spans="1:2">
@@ -67127,7 +67127,7 @@
         <v>8348</v>
       </c>
       <c r="B8348">
-        <v>40.66214125906836</v>
+        <v>40.66214125906835</v>
       </c>
     </row>
     <row r="8349" spans="1:2">
@@ -67335,7 +67335,7 @@
         <v>8374</v>
       </c>
       <c r="B8374">
-        <v>25.38927160710194</v>
+        <v>25.38927160710193</v>
       </c>
     </row>
     <row r="8375" spans="1:2">
@@ -67415,7 +67415,7 @@
         <v>8384</v>
       </c>
       <c r="B8384">
-        <v>59.71586176659706</v>
+        <v>59.71586176659705</v>
       </c>
     </row>
     <row r="8385" spans="1:2">
@@ -67423,7 +67423,7 @@
         <v>8385</v>
       </c>
       <c r="B8385">
-        <v>50.43987032192682</v>
+        <v>50.43987032192681</v>
       </c>
     </row>
     <row r="8386" spans="1:2">
@@ -67495,7 +67495,7 @@
         <v>8394</v>
       </c>
       <c r="B8394">
-        <v>34.42002120662036</v>
+        <v>34.42002120662035</v>
       </c>
     </row>
     <row r="8395" spans="1:2">
@@ -67567,7 +67567,7 @@
         <v>8403</v>
       </c>
       <c r="B8403">
-        <v>49.61458227705647</v>
+        <v>49.61458227705646</v>
       </c>
     </row>
     <row r="8404" spans="1:2">
@@ -67591,7 +67591,7 @@
         <v>8406</v>
       </c>
       <c r="B8406">
-        <v>51.9685288595844</v>
+        <v>51.96852885958439</v>
       </c>
     </row>
     <row r="8407" spans="1:2">
@@ -67599,7 +67599,7 @@
         <v>8407</v>
       </c>
       <c r="B8407">
-        <v>53.35709944076185</v>
+        <v>53.35709944076184</v>
       </c>
     </row>
     <row r="8408" spans="1:2">
@@ -67615,7 +67615,7 @@
         <v>8409</v>
       </c>
       <c r="B8409">
-        <v>47.9865726572927</v>
+        <v>47.98657265729269</v>
       </c>
     </row>
     <row r="8410" spans="1:2">
@@ -67639,7 +67639,7 @@
         <v>8412</v>
       </c>
       <c r="B8412">
-        <v>24.10538600093432</v>
+        <v>24.10538600093431</v>
       </c>
     </row>
     <row r="8413" spans="1:2">
@@ -67655,7 +67655,7 @@
         <v>8414</v>
       </c>
       <c r="B8414">
-        <v>24.21332406447329</v>
+        <v>24.21332406447328</v>
       </c>
     </row>
     <row r="8415" spans="1:2">
@@ -67695,7 +67695,7 @@
         <v>8419</v>
       </c>
       <c r="B8419">
-        <v>36.80239567989844</v>
+        <v>36.80239567989843</v>
       </c>
     </row>
     <row r="8420" spans="1:2">
@@ -67759,7 +67759,7 @@
         <v>8427</v>
       </c>
       <c r="B8427">
-        <v>59.94533638986889</v>
+        <v>59.94533638986888</v>
       </c>
     </row>
     <row r="8428" spans="1:2">
@@ -67767,7 +67767,7 @@
         <v>8428</v>
       </c>
       <c r="B8428">
-        <v>64.45804424317629</v>
+        <v>64.45804424317627</v>
       </c>
     </row>
     <row r="8429" spans="1:2">
@@ -67775,7 +67775,7 @@
         <v>8429</v>
       </c>
       <c r="B8429">
-        <v>63.78456699633252</v>
+        <v>63.78456699633251</v>
       </c>
     </row>
     <row r="8430" spans="1:2">
@@ -67887,7 +67887,7 @@
         <v>8443</v>
       </c>
       <c r="B8443">
-        <v>43.48734607176373</v>
+        <v>43.48734607176372</v>
       </c>
     </row>
     <row r="8444" spans="1:2">
@@ -67919,7 +67919,7 @@
         <v>8447</v>
       </c>
       <c r="B8447">
-        <v>35.81386706649372</v>
+        <v>35.81386706649371</v>
       </c>
     </row>
     <row r="8448" spans="1:2">
@@ -67975,7 +67975,7 @@
         <v>8454</v>
       </c>
       <c r="B8454">
-        <v>63.46072349861173</v>
+        <v>63.46072349861172</v>
       </c>
     </row>
     <row r="8455" spans="1:2">
@@ -68015,7 +68015,7 @@
         <v>8459</v>
       </c>
       <c r="B8459">
-        <v>19.86236211740309</v>
+        <v>19.86236211740308</v>
       </c>
     </row>
     <row r="8460" spans="1:2">
@@ -68127,7 +68127,7 @@
         <v>8473</v>
       </c>
       <c r="B8473">
-        <v>25.9859935489203</v>
+        <v>25.98599354892029</v>
       </c>
     </row>
     <row r="8474" spans="1:2">
@@ -68407,7 +68407,7 @@
         <v>8508</v>
       </c>
       <c r="B8508">
-        <v>30.69596751835065</v>
+        <v>30.69596751835064</v>
       </c>
     </row>
     <row r="8509" spans="1:2">
@@ -68559,7 +68559,7 @@
         <v>8527</v>
       </c>
       <c r="B8527">
-        <v>7.770661361690106</v>
+        <v>7.770661361690105</v>
       </c>
     </row>
     <row r="8528" spans="1:2">
@@ -68663,7 +68663,7 @@
         <v>8540</v>
       </c>
       <c r="B8540">
-        <v>47.11791009870047</v>
+        <v>47.11791009870046</v>
       </c>
     </row>
     <row r="8541" spans="1:2">
@@ -68679,7 +68679,7 @@
         <v>8542</v>
       </c>
       <c r="B8542">
-        <v>53.3286715500117</v>
+        <v>53.32867155001169</v>
       </c>
     </row>
     <row r="8543" spans="1:2">
@@ -68911,7 +68911,7 @@
         <v>8571</v>
       </c>
       <c r="B8571">
-        <v>99.08878352659416</v>
+        <v>99.08878352659414</v>
       </c>
     </row>
     <row r="8572" spans="1:2">
@@ -68975,7 +68975,7 @@
         <v>8579</v>
       </c>
       <c r="B8579">
-        <v>90.8599349030609</v>
+        <v>90.85993490306087</v>
       </c>
     </row>
     <row r="8580" spans="1:2">
@@ -68991,7 +68991,7 @@
         <v>8581</v>
       </c>
       <c r="B8581">
-        <v>88.01655968596853</v>
+        <v>88.01655968596852</v>
       </c>
     </row>
     <row r="8582" spans="1:2">
@@ -69023,7 +69023,7 @@
         <v>8585</v>
       </c>
       <c r="B8585">
-        <v>89.47107125084479</v>
+        <v>89.47107125084477</v>
       </c>
     </row>
     <row r="8586" spans="1:2">
@@ -69071,7 +69071,7 @@
         <v>8591</v>
       </c>
       <c r="B8591">
-        <v>68.82480271923033</v>
+        <v>68.82480271923032</v>
       </c>
     </row>
     <row r="8592" spans="1:2">
@@ -69319,7 +69319,7 @@
         <v>8622</v>
       </c>
       <c r="B8622">
-        <v>114.1681676788364</v>
+        <v>114.1681676788363</v>
       </c>
     </row>
     <row r="8623" spans="1:2">
@@ -69343,7 +69343,7 @@
         <v>8625</v>
       </c>
       <c r="B8625">
-        <v>105.0199552070225</v>
+        <v>105.0199552070224</v>
       </c>
     </row>
     <row r="8626" spans="1:2">
@@ -69383,7 +69383,7 @@
         <v>8630</v>
       </c>
       <c r="B8630">
-        <v>62.88747654699014</v>
+        <v>62.88747654699013</v>
       </c>
     </row>
     <row r="8631" spans="1:2">
@@ -69447,7 +69447,7 @@
         <v>8638</v>
       </c>
       <c r="B8638">
-        <v>68.0941766198476</v>
+        <v>68.09417661984759</v>
       </c>
     </row>
     <row r="8639" spans="1:2">
@@ -69463,7 +69463,7 @@
         <v>8640</v>
       </c>
       <c r="B8640">
-        <v>70.05804564991728</v>
+        <v>70.05804564991726</v>
       </c>
     </row>
     <row r="8641" spans="1:2">
@@ -69575,7 +69575,7 @@
         <v>8654</v>
       </c>
       <c r="B8654">
-        <v>33.31455724878977</v>
+        <v>33.31455724878976</v>
       </c>
     </row>
     <row r="8655" spans="1:2">
@@ -69599,7 +69599,7 @@
         <v>8657</v>
       </c>
       <c r="B8657">
-        <v>57.4334245175025</v>
+        <v>57.43342451750249</v>
       </c>
     </row>
     <row r="8658" spans="1:2">
@@ -69623,7 +69623,7 @@
         <v>8660</v>
       </c>
       <c r="B8660">
-        <v>49.23505528199003</v>
+        <v>49.23505528199002</v>
       </c>
     </row>
     <row r="8661" spans="1:2">
@@ -69679,7 +69679,7 @@
         <v>8667</v>
       </c>
       <c r="B8667">
-        <v>67.92331620430804</v>
+        <v>67.92331620430802</v>
       </c>
     </row>
     <row r="8668" spans="1:2">
@@ -69719,7 +69719,7 @@
         <v>8672</v>
       </c>
       <c r="B8672">
-        <v>79.32934795796893</v>
+        <v>79.32934795796892</v>
       </c>
     </row>
     <row r="8673" spans="1:2">
@@ -69775,7 +69775,7 @@
         <v>8679</v>
       </c>
       <c r="B8679">
-        <v>50.71506402722982</v>
+        <v>50.71506402722981</v>
       </c>
     </row>
     <row r="8680" spans="1:2">
@@ -69783,7 +69783,7 @@
         <v>8680</v>
       </c>
       <c r="B8680">
-        <v>62.93378177109863</v>
+        <v>62.93378177109862</v>
       </c>
     </row>
     <row r="8681" spans="1:2">
@@ -69791,7 +69791,7 @@
         <v>8681</v>
       </c>
       <c r="B8681">
-        <v>61.55517560523566</v>
+        <v>61.55517560523565</v>
       </c>
     </row>
     <row r="8682" spans="1:2">
@@ -69871,7 +69871,7 @@
         <v>8691</v>
       </c>
       <c r="B8691">
-        <v>62.15890194487803</v>
+        <v>62.15890194487802</v>
       </c>
     </row>
     <row r="8692" spans="1:2">
@@ -69911,7 +69911,7 @@
         <v>8696</v>
       </c>
       <c r="B8696">
-        <v>75.56397125324797</v>
+        <v>75.56397125324796</v>
       </c>
     </row>
     <row r="8697" spans="1:2">
@@ -70023,7 +70023,7 @@
         <v>8710</v>
       </c>
       <c r="B8710">
-        <v>43.11778349201177</v>
+        <v>43.11778349201176</v>
       </c>
     </row>
     <row r="8711" spans="1:2">
@@ -70071,7 +70071,7 @@
         <v>8716</v>
       </c>
       <c r="B8716">
-        <v>64.97267698706561</v>
+        <v>64.9726769870656</v>
       </c>
     </row>
     <row r="8717" spans="1:2">
@@ -70087,7 +70087,7 @@
         <v>8718</v>
       </c>
       <c r="B8718">
-        <v>66.55496752479822</v>
+        <v>66.5549675247982</v>
       </c>
     </row>
     <row r="8719" spans="1:2">
@@ -70111,7 +70111,7 @@
         <v>8721</v>
       </c>
       <c r="B8721">
-        <v>76.53169182290773</v>
+        <v>76.53169182290772</v>
       </c>
     </row>
     <row r="8722" spans="1:2">
@@ -70167,7 +70167,7 @@
         <v>8728</v>
       </c>
       <c r="B8728">
-        <v>44.61068736295266</v>
+        <v>44.61068736295265</v>
       </c>
     </row>
     <row r="8729" spans="1:2">
@@ -70207,7 +70207,7 @@
         <v>8733</v>
       </c>
       <c r="B8733">
-        <v>79.02807093022507</v>
+        <v>79.02807093022506</v>
       </c>
     </row>
     <row r="8734" spans="1:2">
@@ -70223,7 +70223,7 @@
         <v>8735</v>
       </c>
       <c r="B8735">
-        <v>82.53642433404003</v>
+        <v>82.53642433404002</v>
       </c>
     </row>
     <row r="8736" spans="1:2">
@@ -70391,7 +70391,7 @@
         <v>8756</v>
       </c>
       <c r="B8756">
-        <v>89.88107763393201</v>
+        <v>89.88107763393199</v>
       </c>
     </row>
     <row r="8757" spans="1:2">
@@ -70399,7 +70399,7 @@
         <v>8757</v>
       </c>
       <c r="B8757">
-        <v>80.43217427645158</v>
+        <v>80.43217427645156</v>
       </c>
     </row>
     <row r="8758" spans="1:2">
@@ -70407,7 +70407,7 @@
         <v>8758</v>
       </c>
       <c r="B8758">
-        <v>96.07249639669161</v>
+        <v>96.07249639669158</v>
       </c>
     </row>
     <row r="8759" spans="1:2">
@@ -70423,7 +70423,7 @@
         <v>8760</v>
       </c>
       <c r="B8760">
-        <v>97.519095043524</v>
+        <v>97.51909504352398</v>
       </c>
     </row>
   </sheetData>
